--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,43 +747,49 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>12564400</v>
+        <v>13873800</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>12840000</v>
+        <v>12674300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3">
+        <v>12952300</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>11852900</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>12641500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>11603600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>12557400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,43 +797,49 @@
         <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>9840300</v>
+        <v>10533300</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>10034600</v>
+        <v>9926300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="3">
+        <v>10132300</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>9445000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>9918400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>8943400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>9840000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,43 +847,49 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>2724100</v>
+        <v>3340500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>2805400</v>
+        <v>2748000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="3">
+        <v>2819900</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>2407900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>2723100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>2660200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2717400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,43 +1017,49 @@
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>17600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>13200</v>
+        <v>17700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>22000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>16800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>79700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,43 +1067,49 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>1000300</v>
+        <v>1160800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>1021100</v>
+        <v>1009000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>837800</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>954800</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>825800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>982500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1134,49 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>10772500</v>
+        <v>11675200</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>11016200</v>
+        <v>10866700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="3">
+        <v>11114800</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>10275100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>10738600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>9842100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>10795500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>1791900</v>
+        <v>2198600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>1823800</v>
+        <v>1807600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="3">
+        <v>1837500</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>1577800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>1902900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>1761500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1761900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1254,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>108700</v>
+        <v>107400</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>95500</v>
+        <v>109700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3">
+        <v>95300</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>171300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>65100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>58300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>78600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>2900900</v>
+        <v>3466800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>2940400</v>
+        <v>2926300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="3">
+        <v>2962800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>2586900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>2922800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>2645700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2823000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,43 +1354,49 @@
         <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>280000</v>
+        <v>303500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="3">
-        <v>262400</v>
+        <v>282400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="3">
+        <v>263600</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>278900</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>278300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>246800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>248800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1404,49 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>1620600</v>
+        <v>2002500</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="3">
-        <v>1656900</v>
+        <v>1634800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="3">
+        <v>1669200</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>1470200</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>1689700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>1573000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1591700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,43 +1454,49 @@
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>480900</v>
+        <v>522800</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="3">
-        <v>520500</v>
+        <v>485100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="3">
+        <v>480700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>337100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>424100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>473500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>363900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1554,49 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>1139700</v>
+        <v>1479800</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="3">
-        <v>1136400</v>
+        <v>1149700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="3">
+        <v>1188500</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>1133100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>1265600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>1099600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1227800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1604,49 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>1027700</v>
+        <v>1362300</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="3">
-        <v>1016700</v>
+        <v>1036700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="3">
+        <v>1067700</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>1042000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>1143300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>977300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1119800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,27 +1709,27 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>29600</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
+      <c r="I29" s="3">
+        <v>29900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>50500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,43 +1854,49 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-108700</v>
+        <v>-107400</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>-95500</v>
+        <v>-109700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3">
+        <v>-95300</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-171300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-65100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-58300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-78600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1904,49 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>1027700</v>
+        <v>1362300</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="3">
-        <v>1046400</v>
+        <v>1036700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="3">
+        <v>1097600</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>1042000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>1193800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>977300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1119800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +2004,104 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>1027700</v>
+        <v>1362300</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="3">
-        <v>1046400</v>
+        <v>1036700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="3">
+        <v>1097600</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>1042000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>1193800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>977300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1119800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,43 +2149,49 @@
         <v>4</v>
       </c>
       <c r="E41" s="3">
-        <v>1922600</v>
+        <v>2016900</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="3">
-        <v>3187500</v>
+        <v>1939400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="3">
+        <v>3215400</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>2252000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>2739900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>3112400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3562500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,43 +2249,49 @@
         <v>4</v>
       </c>
       <c r="E43" s="3">
-        <v>5116700</v>
+        <v>4276400</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="3">
-        <v>4244900</v>
+        <v>5161400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="3">
+        <v>8062200</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>4480900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>3994300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>4196200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3637600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,43 +2299,49 @@
         <v>4</v>
       </c>
       <c r="E44" s="3">
-        <v>2498000</v>
+        <v>2451100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="3">
-        <v>2108200</v>
+        <v>2519800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I44" s="3">
+        <v>2126600</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
         <v>2223500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>2035300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>2251800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1899200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,43 +2349,49 @@
         <v>4</v>
       </c>
       <c r="E45" s="3">
-        <v>144900</v>
+        <v>580400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G45" s="3">
-        <v>478700</v>
+        <v>146200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I45" s="3">
+        <v>906000</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>468800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>484700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>591300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>451900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,43 +2399,49 @@
         <v>4</v>
       </c>
       <c r="E46" s="3">
-        <v>9682200</v>
+        <v>9324900</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="3">
-        <v>10019300</v>
+        <v>9766800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I46" s="3">
+        <v>10106900</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>9425200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>9254200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>10151800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9551300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,43 +2449,49 @@
         <v>4</v>
       </c>
       <c r="E47" s="3">
-        <v>5744700</v>
+        <v>5698600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>2593500</v>
+        <v>5795000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I47" s="3">
+        <v>2616200</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>3422500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>3314400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>3277300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3806700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,43 +2499,49 @@
         <v>4</v>
       </c>
       <c r="E48" s="3">
-        <v>13774400</v>
+        <v>14696700</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="3">
-        <v>12472200</v>
+        <v>13894800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I48" s="3">
+        <v>12581200</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>12254800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>12473200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>10873200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>10836600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,43 +2549,49 @@
         <v>4</v>
       </c>
       <c r="E49" s="3">
-        <v>19290800</v>
+        <v>19680900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G49" s="3">
-        <v>19170000</v>
+        <v>19459400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I49" s="3">
+        <v>19337600</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>19301700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>19825600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>20535800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>20452500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,43 +2699,49 @@
         <v>4</v>
       </c>
       <c r="E52" s="3">
-        <v>2265200</v>
+        <v>2106700</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>2026900</v>
+        <v>2285000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="3">
+        <v>2044600</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>1158400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>1172500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>1564100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1508300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2799,49 @@
         <v>4</v>
       </c>
       <c r="E54" s="3">
-        <v>50757200</v>
+        <v>51507800</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="3">
-        <v>46281800</v>
+        <v>51201000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I54" s="3">
+        <v>46686400</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>45562600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>46039700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>46402100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>46155400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,43 +2889,49 @@
         <v>4</v>
       </c>
       <c r="E57" s="3">
-        <v>8339300</v>
+        <v>8329200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="3">
-        <v>7566300</v>
+        <v>8412200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I57" s="3">
+        <v>7632500</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>8303100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>7580200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>7632900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7305800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,43 +2939,49 @@
         <v>4</v>
       </c>
       <c r="E58" s="3">
-        <v>4092200</v>
+        <v>4082600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="3">
-        <v>2589100</v>
+        <v>4128000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>2611700</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>4086800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>3603800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>2964300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4284400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,43 +2989,49 @@
         <v>4</v>
       </c>
       <c r="E59" s="3">
-        <v>1154000</v>
+        <v>1219500</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G59" s="3">
-        <v>1295600</v>
+        <v>1164100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>456800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>549800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>623800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>613900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,43 +3039,49 @@
         <v>4</v>
       </c>
       <c r="E60" s="3">
-        <v>13585600</v>
+        <v>13631200</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="3">
-        <v>11451000</v>
+        <v>13704300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I60" s="3">
+        <v>11551200</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>12846600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>11733800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>11221000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>12204100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,43 +3089,49 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>15495000</v>
+        <v>14804200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>13865500</v>
+        <v>15630500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>13986800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>12676400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>13801600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>14445600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>12857900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +3139,49 @@
         <v>4</v>
       </c>
       <c r="E62" s="3">
-        <v>3798000</v>
+        <v>3898800</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>3717800</v>
+        <v>3831200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I62" s="3">
+        <v>3750300</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>3827600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>4212000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>4661900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3987400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,43 +3339,49 @@
         <v>4</v>
       </c>
       <c r="E66" s="3">
-        <v>34052300</v>
+        <v>33623400</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>30333300</v>
+        <v>34350000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="3">
+        <v>30598600</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>30577100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>31093700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>31650200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>30616500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,43 +3609,49 @@
         <v>4</v>
       </c>
       <c r="E72" s="3">
-        <v>15887000</v>
+        <v>16931900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G72" s="3">
-        <v>15693700</v>
+        <v>16025900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I72" s="3">
+        <v>15829800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>14669300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>14349100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>13577200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>11286200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,43 +3809,49 @@
         <v>4</v>
       </c>
       <c r="E76" s="3">
-        <v>16705000</v>
+        <v>17884400</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G76" s="3">
-        <v>15948500</v>
+        <v>16851000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I76" s="3">
+        <v>16087900</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>14985500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>14946000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>14751900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>15538900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3964,49 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>1027700</v>
+        <v>1362300</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G81" s="3">
-        <v>1046400</v>
+        <v>1036700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I81" s="3">
+        <v>1097600</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>1042000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>1193800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>977300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1119800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,43 +4034,49 @@
         <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>1000300</v>
+        <v>1160800</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>1021100</v>
+        <v>1009000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I83" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>837800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>954800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>825800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>982500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4334,49 @@
         <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>1846800</v>
+        <v>2940700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>2573700</v>
+        <v>1863000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I89" s="3">
+        <v>2596200</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>2244300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>2454900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>1900700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2797200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4404,49 @@
         <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>-1103500</v>
+        <v>-1007900</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G91" s="3">
-        <v>-971700</v>
+        <v>-1113100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I91" s="3">
+        <v>-980200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-690000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,43 +4554,49 @@
         <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>-4244900</v>
+        <v>-1115400</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>-1111200</v>
+        <v>-4282000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I94" s="3">
+        <v>-1120900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-795000</v>
+        <v>-552700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-418300</v>
+        <v>-801900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-422000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-778500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-405000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-729300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-416700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +4824,49 @@
         <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>-952000</v>
+        <v>-165000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>-136200</v>
+        <v>-960300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I100" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-925600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>181800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-720700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,43 +4874,49 @@
         <v>4</v>
       </c>
       <c r="E101" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
         <v>6600</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>24200</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I101" s="3">
+        <v>24400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18700</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>-75200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>-81900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-25800</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,39 +4924,45 @@
         <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>-3343400</v>
+        <v>1643700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>1350500</v>
+        <v>-3372600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I102" s="3">
+        <v>1362300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>-174600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-157100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>-55000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>665600</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>13873800</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12674300</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>12952300</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>10933500</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14817000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>13535900</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13832800</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>11852900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>12641500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>11603600</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>12557400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10533300</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9926300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10132300</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>9088200</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11249400</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10601100</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10821200</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>9445000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>9918400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>8943400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>9840000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3340500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2748000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2819900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1845300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3567600</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2934800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3011700</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>2407900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>2723100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>2660200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>2717400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>17700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>22000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>16800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>79700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1160800</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1009000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1030100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>1750700</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1239700</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1077600</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1100100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>837800</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>954800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>825800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>982500</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>11675200</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>10866700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>11114800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>10795100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12468900</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11605400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11870400</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>10275100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>10738600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>9842100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>10795500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2198600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1807600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1837500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2348100</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1930500</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1962400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>1577800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>1902900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>1761500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>1761900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>107400</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>109700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>95300</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>114700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>117100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>171300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>65100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>58300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>78600</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3466800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2926300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2962800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>1770800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3702500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3125200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3164300</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>2586900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>2922800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>2645700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>2823000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>303500</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>282400</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>263600</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>282700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>324100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>301600</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>281500</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>278900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>278300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>246800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>248800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2002500</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1634800</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1669200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>-261400</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2138700</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1746000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1782600</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>1470200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>1689700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>1573000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>1591700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>522800</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>485100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>480700</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>558300</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>518100</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>513400</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>337100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>424100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>473500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>363900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1479800</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1149700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1188500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>-321700</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1580400</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1227900</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1269300</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>1133100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>1265600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>1099600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>1227800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1036700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1067700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>-351300</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1107200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1140300</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>1042000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>1143300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>977300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>1119800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>29900</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>31900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>50500</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-107400</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-109700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-95300</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-171300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-65100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-58300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-78600</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1036700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1097600</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>-351300</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1107200</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1172300</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>1042000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>1193800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>977300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>1119800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1036700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1097600</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>-351300</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1107200</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1172300</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>1042000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>1193800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>977300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>1119800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2016900</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1939400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3215400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>5046300</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2154100</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2071300</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3434000</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>2252000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>2739900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>3112400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>3562500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4276400</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5161400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>8062200</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>4952800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4567200</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5512300</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>8610300</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>4480900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>3994300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>4196200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>3637600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2451100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2519800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2126600</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>2558600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2617800</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2691100</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2271200</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>2223500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>2035300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>2251800</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>1899200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>580400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>146200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>906000</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>186900</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>619800</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>156100</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>967600</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>468800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>484700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>591300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>451900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3">
-        <v>9324900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3">
-        <v>9766800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3">
-        <v>10106900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>12744600</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9958800</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
+        <v>10430800</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10794000</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>9425200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>9254200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>10151800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>9551300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5698600</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3">
-        <v>5795000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2616200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>5782000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6086000</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6188900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2794000</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>3422500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>3314400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>3277300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>3806700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14696700</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
-        <v>13894800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
-        <v>12581200</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>14025600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
+        <v>15695900</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
+        <v>14839500</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13436600</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>12254800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>12473200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>10873200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>10836600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3">
-        <v>19680900</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3">
-        <v>19459400</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3">
-        <v>19337600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>19471700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
+        <v>21019000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
+        <v>20782400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20652300</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>19301700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
         <v>19825600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>20535800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>20452500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2106700</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2285000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2044600</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>2148100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2249900</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2440300</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2183600</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>1158400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>1172500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>1564100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>1508300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3">
-        <v>51507800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3">
-        <v>51201000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
-        <v>46686400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>54172100</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
+        <v>55009600</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3">
+        <v>54681900</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3">
+        <v>49860400</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>45562600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>46039700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>46402100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>46155400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>8329200</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8412200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7632500</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>7233400</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8895400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8984100</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8151400</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>8303100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>7580200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>7632900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>7305800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4082600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4128000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2611700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>6414900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4360200</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4408700</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2789300</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>4086800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>3603800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>2964300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>4284400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1219500</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1164100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1307000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>1206600</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1302400</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1243200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1395800</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>456800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>549800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>623800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>613900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3">
-        <v>13631200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3">
-        <v>13704300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
-        <v>11551200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>14854900</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
+        <v>14558000</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
+        <v>14636000</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
+        <v>12336500</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>12846600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>11733800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>11221000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>12204100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>18410700</v>
       </c>
       <c r="E61" s="3">
-        <v>14804200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>15810600</v>
       </c>
       <c r="G61" s="3">
-        <v>15630500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>16693100</v>
       </c>
       <c r="I61" s="3">
-        <v>13986800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>14937700</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>12676400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>13801600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>14445600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>12857900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3898800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3831200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3750300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>3683600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4163800</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4091700</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4005300</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>3827600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>4212000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>4661900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>3987400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3">
-        <v>33623400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3">
-        <v>34350000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
-        <v>30598600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>38092900</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
+        <v>35909300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3">
+        <v>36685300</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3">
+        <v>32678800</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>30577100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>31093700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>31650200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>30616500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>16931900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3">
-        <v>16025900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
-        <v>15829800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>16935600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
+        <v>18083000</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
+        <v>17115400</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
+        <v>16906000</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>14669300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>14349100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>13577200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>11286200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="3">
-        <v>17884400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3">
-        <v>16851000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
-        <v>16087900</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>16079200</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3">
+        <v>19100300</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3">
+        <v>17996600</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
+        <v>17181600</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>14985500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>14946000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>14751900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>15538900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1036700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1097600</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>-351300</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1107200</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1172300</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>1042000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>1193800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>977300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>1119800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1160800</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1009000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1030100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>1749500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1239700</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1077600</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1100100</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>837800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>954800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>825800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>982500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>2940700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1863000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2596200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>396300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3140600</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1989600</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2772700</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>2244300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>2454900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>1900700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>2797200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1007900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1113100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-980200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-1258600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1076400</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1188800</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1046900</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-690000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1115400</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4282000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1120900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-1288200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1191200</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-4573100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1197100</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-838700</v>
       </c>
       <c r="E96" s="3">
-        <v>-552700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-590300</v>
       </c>
       <c r="G96" s="3">
-        <v>-801900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-856400</v>
       </c>
       <c r="I96" s="3">
-        <v>-422000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-450700</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-778500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-405000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-729300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-416700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-165000</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-960300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-137300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>4193400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-176300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1025600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-146700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>-925600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>181800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-720700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>-18700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>-75200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>-81900</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>-25800</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1643700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-3372600</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>3319200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1755400</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-3601900</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>-174600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-157100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>-55000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>665600</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>10933500</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>14817000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>13535900</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11056500</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>14983600</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13688100</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>13832800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>11852900</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>12641500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>11603600</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>12557400</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>9088200</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11249400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10601100</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9190400</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11375900</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10720300</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>10821200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>9445000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>9918400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8943400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>9840000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1845300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3567600</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2934800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1866100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3607700</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2967800</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>3011700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>2407900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>2723100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2660200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>2717400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-37900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>18900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>5900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>22000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>16800</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>79700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1750700</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1239700</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1077600</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1770400</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1253600</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1089700</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>1100100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>837800</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>954800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>825800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>982500</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>10795100</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>12468900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>11605400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10916500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12609100</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11735900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>11870400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>10275100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>10738600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>9842100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>10795500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>138400</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2348100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1930500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2374500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1952200</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>1962400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>1577800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>1902900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1761500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>1761900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-117100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>114700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>117100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>116000</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>118400</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>101700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>171300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>65100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>58300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>78600</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1770800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3702500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3125200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1790700</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3744100</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3160400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>3164300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>2586900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>2922800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2645700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>2823000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>282700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>324100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>301600</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>285900</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>327800</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>305000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>281500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>278900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>278300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>246800</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>248800</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-261400</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2138700</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1746000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-264400</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2162700</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1765600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>1782600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>1470200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>1689700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1573000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>1591700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>60300</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>558300</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>518100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>564600</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>523900</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>513400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>337100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>424100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>473500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>363900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-321700</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1580400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1227900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-325400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1598100</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1241700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>1269300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>1133100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>1265600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1099600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>1227800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-351300</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1455000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1107200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-355300</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1471300</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1119600</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>1140300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>1042000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>1143300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>977300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>1119800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,24 +1840,24 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
         <v>31900</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>50500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>117100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-117100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-101700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-171300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-65100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-58300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-78600</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-351300</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1455000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1107200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-355300</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1471300</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1119600</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>1172300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>1042000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>1193800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>977300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>1119800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-351300</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1455000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1107200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-355300</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1471300</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1119600</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>1172300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>1042000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>1193800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>977300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>1119800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>5046300</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2154100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2071300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5103000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2178300</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2094500</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>3434000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>2252000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>2739900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3112400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>3562500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>4952800</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4567200</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5512300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5008500</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4618500</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5574300</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>8610300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>4480900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>3994300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4196200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>3637600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>2558600</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2617800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2691100</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2587400</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2647200</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2721400</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
         <v>2271200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>2223500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>2035300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2251800</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>1899200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>186900</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>619800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>156100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>189000</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>626800</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>157900</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>967600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>468800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>484700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>591300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>451900</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>12744600</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>9958800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3">
-        <v>10430800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12887900</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10070800</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10548100</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>10794000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>9425200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>9254200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>10151800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>9551300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>5782000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6086000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6188900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5847000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6154400</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>6258500</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>2794000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>3422500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>3314400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3277300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>3806700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>14025600</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>15695900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
-        <v>14839500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14183300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
+        <v>15872400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3">
+        <v>15006300</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>13436600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>12254800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>12473200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>10873200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>10836600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>19471700</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3">
-        <v>21019000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3">
-        <v>20782400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19690600</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>21255300</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
+        <v>21016000</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>20652300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>19301700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>19825600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>20535800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>20452500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>2148100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2249900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2440300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2172300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2275200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2467800</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>2183600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>1158400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>1172500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1564100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>1508300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>54172100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3">
-        <v>55009600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3">
-        <v>54681900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>54781200</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3">
+        <v>55628100</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3">
+        <v>55296700</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>49860400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>45562600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>46039700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>46402100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>46155400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>7233400</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>8895400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>8984100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7314800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8995400</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9085100</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>8151400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>8303100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>7580200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7632900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>7305800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>6414900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4360200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4408700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6487000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4409200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4458200</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>2789300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>4086800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>3603800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2964300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>4284400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>1206600</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1302400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1243200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1220100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1257200</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>1395800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>456800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>549800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>623800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>613900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>14854900</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3">
-        <v>14558000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3">
-        <v>14636000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15021900</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3">
+        <v>14721600</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3">
+        <v>14800600</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>12336500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>12846600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>11733800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>11221000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>12204100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18410700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>18617700</v>
       </c>
       <c r="F61" s="3">
-        <v>15810600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>15988400</v>
       </c>
       <c r="H61" s="3">
-        <v>16693100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>16880800</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>14937700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>12676400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>13801600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>14445600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>12857900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>3683600</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4163800</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4091700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3725000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4210600</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4137700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>4005300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>3827600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>4212000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4661900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>3987400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>38092900</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3">
-        <v>35909300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3">
-        <v>36685300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>38521200</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3">
+        <v>36313000</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3">
+        <v>37097800</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>32678800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>30577100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>31093700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>31650200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>30616500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>16935600</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>18083000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3">
-        <v>17115400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>17126000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
+        <v>18286300</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
+        <v>17307800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>16906000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>14669300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>14349100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>13577200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>11286200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>16079200</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3">
-        <v>19100300</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3">
-        <v>17996600</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16259900</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3">
+        <v>19315000</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
+        <v>18199000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>17181600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>14985500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>14946000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>14751900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>15538900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-351300</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1455000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1107200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-355300</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1471300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1119600</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>1172300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>1042000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>1193800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>977300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>1119800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1749500</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1239700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1077600</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1769200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1253600</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1089700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>1100100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>837800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>954800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>825800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>982500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>396300</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3">
-        <v>3140600</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1989600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400700</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>3175900</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2012000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>2772700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>2244300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>2454900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1900700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>2797200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1258600</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1076400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1188800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1272800</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1088500</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1202200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-690000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1288200</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1191200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-4573100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1302700</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1204600</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4624500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-838700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-848100</v>
       </c>
       <c r="F96" s="3">
-        <v>-590300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-596900</v>
       </c>
       <c r="H96" s="3">
-        <v>-856400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-866000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-450700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-778500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-405000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-729300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-416700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>4193400</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-176300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1025600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4240500</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-178200</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1037100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-146700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-925600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>181800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-720700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>17700</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>26000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>-18700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>-75200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-81900</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>-25800</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>3319200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1755400</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-3601900</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3356500</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1775200</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-3642400</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>1455000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-174600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>-157100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>665600</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>11056500</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>14983600</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>13688100</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>12319300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10873500</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14735600</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13461500</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>13832800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>11852900</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>12641500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>11603600</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>12557400</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9190400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11375900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10720300</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>9924100</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9038300</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11187600</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10542900</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>10821200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>9445000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>9918400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>8943400</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>9840000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1866100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3607700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2967800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2395200</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1835200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3548000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2918600</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>3011700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>2407900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>2723100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>2660200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>2717400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>19100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>5900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>22000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>16800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>79700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1770400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1253600</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1089700</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>1639900</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1741100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1232900</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1071700</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>1100100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>837800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>954800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>825800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>982500</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10916500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>12609100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>11735900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>11511100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10735800</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12400400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11541700</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>11870400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>10275100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>10738600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>9842100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>10795500</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>140000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2374500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1952200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>808200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>137600</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2335200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1919900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>1962400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>1577800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>1902900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>1761500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>1761900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-118400</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>116000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>118400</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-116500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>114100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>116500</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>101700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>171300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>65100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>58300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>78600</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1790700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3744100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3160400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>2389300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1761100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3682100</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3108000</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>3164300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>2586900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>2922800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>2645700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>2823000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>285900</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>327800</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>305000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>303500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>281200</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>322300</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>281500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>278900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>278300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>246800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
         <v>248800</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-264400</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2162700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1765600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>444700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2126900</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1736400</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>1782600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>1470200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>1689700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>1573000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
         <v>1591700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>61000</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>564600</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>523900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>555300</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>515300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>513400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>337100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>424100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>473500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
         <v>363900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-325400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1598100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1241700</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>216500</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-320000</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1571700</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1221100</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>1269300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>1133100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>1265600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>1099600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>1227800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-355300</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1471300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1119600</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-349400</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1101100</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>1140300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>1042000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>1143300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>977300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>1119800</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,24 +1903,24 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
         <v>31900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>50500</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>118400</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-116000</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-118400</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>116500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-116500</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-101700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-171300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-65100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-58300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-78600</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-355300</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1471300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1119600</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-349400</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1101100</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>1172300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>1042000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>1193800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>977300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>1119800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-355300</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1471300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1119600</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-349400</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1101100</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>1172300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>1042000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>1193800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>977300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>1119800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
-        <v>5103000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2178300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2094500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>4705600</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5018500</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2142200</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2059900</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>3434000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>2252000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>2739900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>3112400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>3562500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5008500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4618500</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5574300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>3483300</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4925600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4542100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5482000</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>8610300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>4480900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>3994300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>4196200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>3637600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2587400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2647200</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2721400</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>2303400</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2544600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2603400</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2676300</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>2271200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>2223500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>2035300</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>2251800</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
         <v>1899200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>189000</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>626800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>157900</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>185900</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>616400</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>967600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>468800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>484700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>591300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>451900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3">
-        <v>12887900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3">
-        <v>10070800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3">
-        <v>10548100</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>10611100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3">
+        <v>12674500</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
+        <v>9904100</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10373500</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>10794000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>9425200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>9254200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>10151800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>9551300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5847000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6154400</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6258500</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>5447900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5750200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6052600</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6154900</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>2794000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>3422500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>3314400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>3277300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>3806700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14183300</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
-        <v>15872400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
-        <v>15006300</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>13588600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
+        <v>13948600</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
+        <v>15609700</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14757900</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>13436600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>12254800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>12473200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>10873200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>10836600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3">
-        <v>19690600</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3">
-        <v>21255300</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3">
-        <v>21016000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>18548300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
+        <v>19364700</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
+        <v>20903500</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20668200</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>20652300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
         <v>19301700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>19825600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>20535800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>20452500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2172300</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2275200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2467800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>1956400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2136300</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2237500</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2426900</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>2183600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>1158400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>1172500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>1564100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
         <v>1508300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3">
-        <v>54781200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3">
-        <v>55628100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
-        <v>55296700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>50152300</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
+        <v>53874400</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3">
+        <v>54707300</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3">
+        <v>54381400</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>49860400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>45562600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>46039700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>46402100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>46155400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7314800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8995400</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>9085100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>7184300</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7193700</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8846500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8934800</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>8151400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>8303100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>7580200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>7632900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>7305800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3">
-        <v>6487000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4409200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4458200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>4211500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6379600</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4336200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4384400</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>2789300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>4086800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>3603800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>2964300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>4284400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1220100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1317000</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1257200</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>1389300</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1199900</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1295200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1236400</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>1395800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>456800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>549800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>623800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>613900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3">
-        <v>15021900</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3">
-        <v>14721600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
-        <v>14800600</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>12785100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
+        <v>14773200</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
+        <v>14478000</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
+        <v>14555600</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>12336500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>12846600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>11733800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>11221000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>12204100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>17194300</v>
       </c>
       <c r="E61" s="3">
-        <v>18617700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>18309500</v>
       </c>
       <c r="G61" s="3">
-        <v>15988400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>15723800</v>
       </c>
       <c r="I61" s="3">
-        <v>16880800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>16601400</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>14937700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>12676400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>13801600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>14445600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>12857900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3725000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4210600</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4137700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>3242200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3663300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4140900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4069200</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>4005300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>3827600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>4212000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>4661900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>3987400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3">
-        <v>38521200</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3">
-        <v>36313000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
-        <v>37097800</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>34397900</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
+        <v>37883600</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3">
+        <v>35712000</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3">
+        <v>36483700</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>32678800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>30577100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>31093700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>31650200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>30616500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>17126000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3">
-        <v>18286300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
-        <v>17307800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>17239000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
+        <v>16842500</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
+        <v>17983600</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
+        <v>17021300</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>16906000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>14669300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>14349100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>13577200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>11286200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="3">
-        <v>16259900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3">
-        <v>19315000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
-        <v>18199000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>15754300</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3">
+        <v>15990800</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3">
+        <v>18995300</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
+        <v>17897700</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>17181600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>14985500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>14946000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>14751900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>15538900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-355300</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1471300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1119600</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-349400</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1101100</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>1172300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>1042000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>1193800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>977300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>1119800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1769200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1253600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1089700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>1641100</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1739900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1232900</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1071700</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>1100100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>837800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>954800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>825800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>982500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>400700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>3175900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2012000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>3295100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>394100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>3123300</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1978700</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>2772700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>2244300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>2454900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>1900700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>2797200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1272800</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1088500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1202200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-514100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1251700</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1070500</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1182300</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-690000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1302700</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1204600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-4624500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-410600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1281100</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1184600</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4548000</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-120000</v>
       </c>
       <c r="E96" s="3">
-        <v>-848100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-834100</v>
       </c>
       <c r="G96" s="3">
-        <v>-596900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-587000</v>
       </c>
       <c r="I96" s="3">
-        <v>-866000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-851700</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-450700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-778500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-405000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-729300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-416700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>4240500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-178200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1037100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-2714000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4170300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1019900</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>-146700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-925600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>181800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-720700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>17900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>17600</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>26000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>-18700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>-75200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>-81900</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
         <v>-25800</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>3356500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1775200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-3642400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3301000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1745800</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3582100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>1455000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-174600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>-157100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>-55000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>665600</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>12319300</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10873500</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>14735600</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12828100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11322600</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>15344200</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>13461500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>13832800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>11852900</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>12641500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>11603600</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>12557400</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>9924100</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9038300</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11187600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10334000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9411600</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11649700</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>10542900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>10821200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>9445000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>9918400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>8943400</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>9840000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2395200</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1835200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3548000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2494100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1911000</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3694600</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>2918600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>3011700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>2407900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2723100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>2660200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>2717400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>7100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>18800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>5900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>22000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>16800</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>79700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1639900</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1741100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1232900</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1707600</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1813000</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1283800</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>1071700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>1100100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>837800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>954800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>825800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>982500</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>11511100</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>10735800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12400400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11986500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11179300</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12912600</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>11541700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>11870400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>10275100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>10738600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>9842100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>10795500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>808200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>137600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2335200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>841600</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>143300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2431600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>1919900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>1962400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>1577800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1902900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>1761500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>1761900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-60000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-116500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>114100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-121300</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>118800</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>116500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>101700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>171300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>65100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>58300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>78600</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2389300</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1761100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3682100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2488000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1833800</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3834200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>3108000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>3164300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>2586900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2922800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>2645700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>2823000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>303500</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>281200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>322300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>316000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>292800</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>335600</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>300000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>281500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>278900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>278300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>246800</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
         <v>248800</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>444700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-260000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2126900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>463000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-270700</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2214800</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>1736400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>1782600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>1470200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1689700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>1573000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
         <v>1591700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>228200</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>60000</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>555300</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>237600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>62500</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>578200</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>515300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>513400</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>337100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>424100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>473500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>363900</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>216500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-320000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1571700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>225400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-333200</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1636600</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>1221100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>1269300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>1133100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1265600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>1099600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>1227800</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>109400</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-349400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1447000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>113900</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-363800</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1506700</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>1101100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>1140300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>1042000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1143300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>977300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>1119800</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,53 +1935,56 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>31900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>50500</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>60000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>116500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-114100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>62500</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>121300</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-116500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-101700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-171300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-58300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-78600</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>109400</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-349400</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1447000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>113900</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-363800</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1506700</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>1101100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>1172300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>1042000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1193800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>977300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>1119800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>109400</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-349400</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1447000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>113900</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-363800</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1506700</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>1101100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>1172300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>1042000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1193800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>977300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>1119800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>4705600</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>5018500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2142200</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5225800</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2230700</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>2059900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>3434000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>2252000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2739900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>3112400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>3562500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>3483300</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4925600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4542100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3627200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5129000</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4729700</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>5482000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>8610300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>4480900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3994300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>4196200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>3637600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>2303400</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2544600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2603400</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2398500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2649700</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2710900</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
         <v>2676300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>2271200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>2223500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2035300</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>2251800</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
         <v>1899200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>118800</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>185900</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>616400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>123700</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>193500</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>641900</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>155300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>967600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>468800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>484700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>591300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>451900</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>10611100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>12674500</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3">
-        <v>9904100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11049400</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>13198000</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10313200</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>10373500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>10794000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>9425200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9254200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>10151800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>9551300</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>5447900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3">
-        <v>5750200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6052600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5672900</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5987800</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>6302600</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>6154900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>2794000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>3422500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3314400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>3277300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>3806700</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>13588600</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13948600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
-        <v>15609700</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14149900</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
+        <v>14524700</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3">
+        <v>16254400</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>14757900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>13436600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>12254800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>12473200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>10873200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>10836600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>18548300</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3">
-        <v>19364700</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3">
-        <v>20903500</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19314400</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>20164600</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
+        <v>21766800</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>20668200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>20652300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>19301700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>19825600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>20535800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>20452500</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1956400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2136300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2237500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2037200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2224600</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2329900</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>2426900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>2183600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>1158400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1172500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>1564100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>1508300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>50152300</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3">
-        <v>53874400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3">
-        <v>54707300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>52223800</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3">
+        <v>56099600</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3">
+        <v>56966900</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>54381400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>49860400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>45562600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>46039700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>46402100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>46155400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>7184300</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7193700</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>8846500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7481000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7490800</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9211900</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>8934800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>8151400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>8303100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7580200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>7632900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>7305800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>4211500</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6379600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4336200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4385500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6643100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4515300</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>4384400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>2789300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>4086800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3603800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>2964300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>4284400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>1389300</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1199900</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1295200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1446700</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1249500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1348700</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>1236400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>1395800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>456800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>549800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>623800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>613900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>12785100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3">
-        <v>14773200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3">
-        <v>14478000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13313200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3">
+        <v>15383400</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3">
+        <v>15076000</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>14555600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>12336500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>12846600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>11733800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>11221000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>12204100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17194300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>17904500</v>
       </c>
       <c r="F61" s="3">
-        <v>18309500</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>19065700</v>
       </c>
       <c r="H61" s="3">
-        <v>15723800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>16373200</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>16601400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>14937700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>12676400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>13801600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>14445600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>12857900</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>3242200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3663300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4140900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3376100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3814600</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4312000</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>4069200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>4005300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>3827600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4212000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>4661900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>3987400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>34397900</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3">
-        <v>37883600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3">
-        <v>35712000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>35818700</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3">
+        <v>39448400</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3">
+        <v>37187000</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>36483700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>32678800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>30577100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>31093700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>31650200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>30616500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>17239000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>16842500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3">
-        <v>17983600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>17951000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
+        <v>17538200</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
+        <v>18726400</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>17021300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>16906000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>14669300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>14349100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>13577200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>11286200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>15754300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3">
-        <v>15990800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3">
-        <v>18995300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16405100</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3">
+        <v>16651300</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
+        <v>19779900</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>17897700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>17181600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>14985500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>14946000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>14751900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>15538900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>109400</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-349400</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1447000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>113900</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-363800</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1506700</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>1101100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>1172300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>1042000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1193800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>977300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>1119800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1641100</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1739900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1232900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1708900</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1811800</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1283800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>1071700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>1100100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>837800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>954800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>825800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>982500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>3295100</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3">
-        <v>394100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3">
-        <v>3123300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3431200</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>410400</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3252300</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>1978700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>2772700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>2244300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2454900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>1900700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>2797200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-514100</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1251700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1070500</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-535300</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1303400</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1114700</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-690000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-410600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1281100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1184600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-427500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1334000</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1233600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-120000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-124900</v>
       </c>
       <c r="F96" s="3">
-        <v>-834100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-868500</v>
       </c>
       <c r="H96" s="3">
-        <v>-587000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-611300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-851700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-450700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-778500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-405000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-729300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-416700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-2714000</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3">
-        <v>4170300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-175300</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2826100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4342600</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-182500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-146700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-925600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>181800</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-720700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-140000</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3">
-        <v>17600</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-145800</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>7100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>26000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>-18700</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>-81900</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>-25800</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>30600</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3">
-        <v>3301000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3">
-        <v>1745800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3437300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1817900</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>1455000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>-174600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-157100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-55000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>665600</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>12828100</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11322600</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>15344200</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>11685800</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12225100</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10790400</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14623000</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>13461500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>13832800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>11852900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>12641500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>11603600</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>12557400</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10334000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9411600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11649700</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>8892200</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9848300</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8969200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11102100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>10542900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>10821200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>9445000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>9918400</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>8943400</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>9840000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2494100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1911000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3694600</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2793600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2376800</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1821200</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3520900</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>2918600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>3011700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>2407900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>2723100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>2660200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>2717400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-39200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-290700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>18800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>5900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>22000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>16800</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>79700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1707600</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1813000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1283800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>1015600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1627400</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1727800</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1223400</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>1071700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>1100100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>837800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>954800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>825800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>982500</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>11986500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11179300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>12912600</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>9593800</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11423100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10653800</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12305700</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>11541700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>11870400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>10275100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>10738600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>9842100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>10795500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>841600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>143300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2431600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>2092000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>802000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>136600</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2317300</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>1919900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>1962400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>1577800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>1902900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>1761500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>1761900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-62500</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-121300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>118800</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-115600</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>116500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>101700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>171300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>65100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>58300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>78600</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2488000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1833800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3834200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>3157800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1747600</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3654000</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>3108000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>3164300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>2586900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>2922800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>2645700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>2823000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>316000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>292800</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>335600</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>263800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>301200</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>279000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>319900</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>300000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>281500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>278900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>278300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
         <v>246800</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
         <v>248800</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>463000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-270700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2214800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>1878400</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>441300</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2110700</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>1736400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>1782600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>1470200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>1689700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
         <v>1573000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
         <v>1591700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>237600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>62500</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>578200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>513700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>226500</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>59500</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>551000</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>515300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>513400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>337100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>424100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
         <v>473500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
         <v>363900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>225400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-333200</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1636600</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>1364700</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>214800</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-317500</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1559700</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>1221100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>1269300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>1133100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>1265600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>1099600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>1227800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>113900</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-363800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1506700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>1207100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>108600</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-346700</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1435900</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>1101100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>1140300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>1042000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>1143300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>977300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>1119800</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,30 +2025,30 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>31900</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>50500</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>62500</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>121300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-118800</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>59500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>115600</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-113200</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-116500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-101700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-171300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-65100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-58300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>-78600</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>113900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-363800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1506700</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>1207100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>108600</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-346700</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1435900</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>1101100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>1172300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>1042000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>1193800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>977300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>1119800</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>113900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-363800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1506700</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>1207100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>108600</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-346700</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1435900</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>1101100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>1172300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>1042000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>1193800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>977300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>1119800</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4900000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5225800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2230700</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>2296300</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4669600</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4980200</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2125900</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>2059900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>3434000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>2252000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>2739900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>3112400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>3562500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3627200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5129000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4729700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>4688300</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3456700</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4887900</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4507400</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>5482000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>8610300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>4480900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>3994300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>4196200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
         <v>3637600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2398500</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2649700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2710900</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>2737600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2285800</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2525100</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2583500</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>2676300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>2271200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>2223500</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>2035300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
         <v>2251800</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3">
         <v>1899200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>123700</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>193500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>641900</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>184500</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>611700</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>155300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>967600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>468800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>484700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>591300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>451900</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3">
-        <v>11049400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3">
-        <v>13198000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3">
-        <v>10313200</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>9828400</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10530000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
+        <v>12577700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9828400</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>10373500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>10794000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>9425200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>9254200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>10151800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>9551300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5672900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3">
-        <v>5987800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6302600</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>6354200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5406300</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5706300</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6006300</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>6154900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>2794000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>3422500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>3314400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>3277300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>3806700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14149900</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
-        <v>14524700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
-        <v>16254400</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>13621300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
+        <v>13484800</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
+        <v>13842000</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>15490400</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>14757900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>13436600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>12254800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>12473200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>10873200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
         <v>10836600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3">
-        <v>19314400</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3">
-        <v>20164600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3">
-        <v>21766800</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>18809300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
+        <v>18406600</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
+        <v>19216700</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20743700</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>20668200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
         <v>20652300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>19301700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>19825600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>20535800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3">
         <v>20452500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2037200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2224600</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2329900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>2162000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1941400</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2120000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2220400</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>2426900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>2183600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>1158400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>1172500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
         <v>1564100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
         <v>1508300</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3">
-        <v>52223800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3">
-        <v>56099600</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
-        <v>56966900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>50775300</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
+        <v>49769000</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3">
+        <v>53462700</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3">
+        <v>54289200</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>54381400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>49860400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>45562600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>46039700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>46402100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>46155400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7481000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7490800</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>9211900</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>8288600</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7129400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7138700</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8778900</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>8934800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>8151400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>8303100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>7580200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>7632900</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>7305800</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4385500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>6643100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4515300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>3683200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4179300</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
+        <v>6330900</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4303100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>4384400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>2789300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>4086800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>3603800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>2964300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
         <v>4284400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1446700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1249500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1348700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>1382200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1378700</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1190800</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1285300</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>1236400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>1395800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>456800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>549800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>623800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>613900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3">
-        <v>13313200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3">
-        <v>15383400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
-        <v>15076000</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>13354000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
+        <v>12687400</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
+        <v>14660300</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
+        <v>14367300</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>14555600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>12336500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>12846600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>11733800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>11221000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>12204100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>16146400</v>
       </c>
       <c r="E61" s="3">
-        <v>17904500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>17062900</v>
       </c>
       <c r="G61" s="3">
-        <v>19065700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>18169600</v>
       </c>
       <c r="I61" s="3">
-        <v>16373200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>15603600</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>16601400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>14937700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>12676400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>13801600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>14445600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>12857900</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3376100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3814600</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4312000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>3171900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3217400</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3635300</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4109300</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>4069200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>4005300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>3827600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>4212000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>4661900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
         <v>3987400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3">
-        <v>35818700</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3">
-        <v>39448400</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
-        <v>37187000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>33804700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
+        <v>34135100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3">
+        <v>37594100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3">
+        <v>35439100</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>36483700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>32678800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>30577100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>31093700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>31650200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>30616500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>17951000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3">
-        <v>17538200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
-        <v>18726400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>17976900</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
+        <v>17107200</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
+        <v>16713800</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
+        <v>17846200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>17021300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>16906000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>14669300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>14349100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>13577200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>11286200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="3">
-        <v>16405100</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3">
-        <v>16651300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
-        <v>19779900</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>16970600</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3">
+        <v>15634000</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3">
+        <v>15868600</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
+        <v>18850200</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>17897700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>17181600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>14985500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>14946000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>14751900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>15538900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3">
-        <v>113900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-363800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1506700</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>1207100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>108600</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-346700</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1435900</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>1101100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>1172300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>1042000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>1193800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>977300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>1119800</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1708900</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1811800</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1283800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>1015600</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1628500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1726600</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1223400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>1071700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>1100100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>837800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>954800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>825800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>982500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>3431200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>410400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>3252300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>1845700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3269900</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>391100</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3099500</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>1978700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>2772700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>2244300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>2454900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>1900700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>2797200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-535300</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1303400</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1114700</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-849900</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-510200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1242100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1062300</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-690000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-427500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1334000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1233600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-1856200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-407400</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1271300</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1175600</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-675900</v>
       </c>
       <c r="E96" s="3">
-        <v>-124900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-119100</v>
       </c>
       <c r="G96" s="3">
-        <v>-868500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-827700</v>
       </c>
       <c r="I96" s="3">
-        <v>-611300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-582500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-851700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-450700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-778500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-405000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-729300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-416700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-2826100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>4342600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-182500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-2646500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2693200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>4138500</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-173900</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-146700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-925600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>181800</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>-720700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-145800</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>18400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>7100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>26000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>-18700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>-75200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
         <v>-81900</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3">
         <v>-25800</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>31800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>3437300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1817900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-2645400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>30400</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3275800</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1732400</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>1455000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>-174600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>-157100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>-55000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>665600</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>11685800</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12225100</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10790400</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11302300</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11823900</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10436300</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>14623000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>13461500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>13832800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>11852900</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>12641500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>11603600</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>12557400</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>8892200</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9848300</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8969200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8600400</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9525100</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8674900</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>11102100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>10542900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>10821200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>9445000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>9918400</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>8943400</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>9840000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2793600</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2376800</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1821200</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2701900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2298800</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1761400</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>3520900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>2918600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>3011700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2407900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>2723100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>2660200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>2717400</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-290700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-281100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>18800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>5900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>22000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>16800</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>79700</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1015600</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1627400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1727800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>982300</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1574000</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1671100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>1223400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>1071700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>1100100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>837800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>954800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>825800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>982500</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>9593800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>11423100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10653800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9278900</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11048200</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10304200</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>12305700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>11541700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>11870400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>10275100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>10738600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>9842100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>10795500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>2092000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>802000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>136600</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2023300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>775700</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>132100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>2317300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>1919900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>1962400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1577800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>1902900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>1761500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>1761900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>50200</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-59500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-115600</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>113200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>116500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>101700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>171300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>65100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>58300</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>78600</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>3157800</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>2371000</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>1747600</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>3654000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>3108000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>3164300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2586900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>2922800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>2645700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>2823000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>263800</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>301200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>279000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>255200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>291300</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>269900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>319900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>300000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>281500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>278900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>278300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
         <v>246800</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
         <v>248800</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1878400</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>441300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-258000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1816700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>426800</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-249500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>2110700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>1736400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>1782600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1470200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>1689700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
         <v>1573000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="3">
         <v>1591700</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>513700</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>226500</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>59500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>496800</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>219000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>57600</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>551000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>515300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>513400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>337100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>424100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>473500</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
         <v>363900</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1364700</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>214800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-317500</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1319900</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>207800</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-307100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>1559700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>1221100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>1269300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1133100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>1265600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>1099600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>1227800</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1207100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>108600</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-346700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1167500</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-335300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>1435900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>1101100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>1140300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>1143300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>977300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>1119800</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,30 +2089,30 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>31900</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>50500</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>59500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>115600</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>57600</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>111800</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-113200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-116500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-101700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-171300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-65100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-58300</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>-78600</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1207100</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
-        <v>108600</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-346700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1167500</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-335300</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>1435900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>1101100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>1172300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>1193800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>977300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>1119800</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1207100</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>108600</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-346700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1167500</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-335300</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>1435900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>1101100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>1172300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>1193800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>977300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>1119800</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>2296300</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4669600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3">
-        <v>4980200</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2220900</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4516400</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4816700</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>2125900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>2059900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>3434000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2252000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>2739900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>3112400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
         <v>3562500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>4688300</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3456700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4887900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4534500</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3343300</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4727500</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>4507400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>5482000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>8610300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4480900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>3994300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>4196200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
         <v>3637600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>2737600</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2285800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2525100</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2647700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2210800</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2442200</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
         <v>2583500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>2676300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>2271200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2223500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>2035300</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
         <v>2251800</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3">
         <v>1899200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>106200</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>117900</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>184500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>102700</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>114000</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>178400</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>611700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>155300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>967600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>468800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>484700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>591300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
         <v>451900</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9505900</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10184500</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3">
+        <v>12164900</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>9828400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>10530000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3">
-        <v>12577700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3">
-        <v>9828400</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>10373500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>10794000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9425200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>9254200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>10151800</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3">
         <v>9551300</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>6354200</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3">
-        <v>5406300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3">
-        <v>5706300</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6145700</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5228900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5519000</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>6006300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>6154900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>2794000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3422500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>3314400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>3277300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>3806700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>13621300</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13484800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
-        <v>13842000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13174300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
+        <v>13042200</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3">
+        <v>13387700</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>15490400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>14757900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>13436600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>12254800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>12473200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>10873200</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
         <v>10836600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>18809300</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3">
-        <v>18406600</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3">
-        <v>19216700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3">
+        <v>18192100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>17802500</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
+        <v>18586100</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>20743700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>20668200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>20652300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>19301700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>19825600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>20535800</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
         <v>20452500</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>2162000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1941400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2120000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2091100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1877700</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2050400</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>2220400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>2426900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>2183600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1158400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>1172500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>1564100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3">
         <v>1508300</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>50775300</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3">
-        <v>49769000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3">
-        <v>53462700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>49109100</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3">
+        <v>48135800</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3">
+        <v>51708300</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>54289200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>54381400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>49860400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>45562600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>46039700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>46402100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3">
         <v>46155400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>8288600</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7129400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>7138700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8016600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>6895400</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6904400</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>8778900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>8934800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>8151400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>8303100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>7580200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>7632900</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>7305800</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>3683200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4179300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6330900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3562300</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4042200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6123100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>4303100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>4384400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>2789300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4086800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>3603800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>2964300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
         <v>4284400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>1382200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1378700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1190800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1336900</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1333500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1151700</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>1285300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>1236400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>1395800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>456800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>549800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>623800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>613900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>13354000</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3">
-        <v>12687400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3">
-        <v>14660300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12915800</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3">
+        <v>12271100</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3">
+        <v>14179200</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>14367300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>14555600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>12336500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>12846600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>11733800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>11221000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>12204100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16146400</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>15616600</v>
       </c>
       <c r="F61" s="3">
-        <v>17062900</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>16502900</v>
       </c>
       <c r="H61" s="3">
-        <v>18169600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>17573300</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>15603600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>16601400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>14937700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>12676400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>13801600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>14445600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>12857900</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>3171900</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3217400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3635300</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3067800</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3111800</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3516000</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>4109300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>4069200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>4005300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3827600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>4212000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>4661900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>3987400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>33804700</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3">
-        <v>34135100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3">
-        <v>37594100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>32695300</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3">
+        <v>33014900</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3">
+        <v>36360400</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>35439100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>36483700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>32678800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>30577100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>31093700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>31650200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>30616500</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>17976900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>17107200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3">
-        <v>16713800</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>17387000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
+        <v>16545800</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
+        <v>16165300</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>17846200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>17021300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>16906000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>14669300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>14349100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>13577200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>11286200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>16970600</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3">
-        <v>15634000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3">
-        <v>15868600</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16413700</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3">
+        <v>15120900</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
+        <v>15347900</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>18850200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>17897700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>17181600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>14985500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>14946000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>14751900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
         <v>15538900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1207100</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
-        <v>108600</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-346700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1167500</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-335300</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>1435900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>1101100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>1172300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>1193800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>977300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>1119800</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1015600</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>1628500</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>1726600</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>1223400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>1071700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>1100100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>837800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>954800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>825800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>982500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1845700</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>3269900</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
-        <v>391100</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>3099500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>1978700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>2772700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2244300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>2454900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>1900700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>2797200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-849900</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>-510200</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1242100</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-690000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1856200</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>-407400</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1271300</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-675900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-119100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-827700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-582500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-851700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-450700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-778500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-405000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-729300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-416700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-2646500</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>-2693200</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>4138500</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-173900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-146700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-925600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>181800</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>-720700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>11700</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>-138900</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>17500</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>7100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>26000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>-75200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>-81900</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
         <v>-25800</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-2645400</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>30400</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
-        <v>3275800</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>1732400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>1455000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-174600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-157100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>-55000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>665600</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>11302300</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11823900</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10436300</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>13015600</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10920000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11424000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10083300</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>14623000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>13461500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>13832800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>11852900</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>12641500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>11603600</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>12557400</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8600400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9525100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8674900</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>10257800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8309500</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9202900</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8381500</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>11102100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>10542900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>10821200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>9445000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>9918400</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>8943400</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
         <v>9840000</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2701900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2298800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1761400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2757800</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2610500</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2221100</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1701800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>3520900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>2918600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>3011700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>2407900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>2723100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>2660200</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>2717400</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-281100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-36100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="D14" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-271600</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>18800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>5900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>22000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>16800</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>79700</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>982300</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1574000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1671100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>1188000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>949100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1520700</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1614500</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>1223400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>1071700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>1100100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>837800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>954800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>825800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3">
         <v>982500</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9278900</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11048200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10304200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>9972000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8965100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10674600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9955600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>12305700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>11541700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>11870400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>10275100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>10738600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>9842100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3">
         <v>10795500</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2023300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>775700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>132100</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>3043600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1954900</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>749500</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>2317300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>1919900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>1962400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>1577800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>1902900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>1761500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>1761900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>48600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-57600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-111800</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>46900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>113200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>116500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>101700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>171300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>65100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>58300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>78600</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1542,254 +1578,266 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>3654000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>3108000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>3164300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>2586900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>2922800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>2645700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>2823000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>255200</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>291300</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>269900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>246500</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>281500</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>319900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>300000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>281500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>278900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
         <v>278300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
         <v>246800</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
         <v>248800</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1816700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>426800</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-249500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>2972700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1755300</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>412400</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-241100</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>2110700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>1736400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>1782600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>1470200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
         <v>1689700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
         <v>1573000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="3">
         <v>1591700</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>496800</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>219000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>57600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>391600</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>480000</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>211600</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>551000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>515300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>513400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>337100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
         <v>424100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
         <v>473500</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3">
         <v>363900</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1319900</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>207800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-307100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>2581100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1275300</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>200700</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-296700</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>1559700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>1221100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>1269300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>1133100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>1265600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>1099600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="3">
         <v>1227800</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1167500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <v>105000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-335300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>2498200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>101500</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>1435900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>1101100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>1140300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>1042000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>1143300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>977300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="3">
         <v>1119800</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,30 +2152,30 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>31900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
         <v>50500</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-48600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>57600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>111800</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-186500</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>55600</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-113200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-116500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-101700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-171300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-65100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>-58300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>-78600</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1167500</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>105000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-335300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>2498200</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>101500</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>1435900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>1101100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>1172300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>1042000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>1193800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>977300</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3">
         <v>1119800</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1167500</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>105000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-335300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>2498200</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>101500</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>1435900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>1101100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>1172300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>1042000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>1193800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>977300</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3">
         <v>1119800</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>3543300</v>
       </c>
       <c r="E41" s="3">
-        <v>2220900</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+        <v>2145800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4363600</v>
       </c>
       <c r="G41" s="3">
-        <v>4516400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+        <v>4653800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1986500</v>
       </c>
       <c r="I41" s="3">
-        <v>4816700</v>
+        <v>1910200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>2125900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>2059900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>3434000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>2252000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>2739900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>3112400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3">
         <v>3562500</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>4100700</v>
       </c>
       <c r="E43" s="3">
-        <v>4534500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+        <v>4381100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3230200</v>
       </c>
       <c r="G43" s="3">
-        <v>3343300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+        <v>4567600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4212000</v>
       </c>
       <c r="I43" s="3">
-        <v>4727500</v>
+        <v>5083600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>4507400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>5482000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>8610300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>4480900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>3994300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
         <v>4196200</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
         <v>3637600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>2659600</v>
       </c>
       <c r="E44" s="3">
-        <v>2647700</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+        <v>2558200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2136000</v>
       </c>
       <c r="G44" s="3">
-        <v>2210800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+        <v>2359600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2414200</v>
       </c>
       <c r="I44" s="3">
-        <v>2442200</v>
+        <v>2481800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>2583500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>2676300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>2271200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>2223500</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
         <v>2035300</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3">
         <v>2251800</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3">
         <v>1899200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>145100</v>
       </c>
       <c r="E45" s="3">
-        <v>102700</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+        <v>99300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>110200</v>
       </c>
       <c r="G45" s="3">
-        <v>114000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>172400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>571600</v>
       </c>
       <c r="I45" s="3">
-        <v>178400</v>
+        <v>144000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>611700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>155300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>967600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>468800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>484700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>591300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
         <v>451900</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>10448700</v>
       </c>
       <c r="E46" s="3">
-        <v>9505900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
+        <v>9184400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9840000</v>
       </c>
       <c r="G46" s="3">
-        <v>10184500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
+        <v>11753500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>9184400</v>
       </c>
       <c r="I46" s="3">
-        <v>12164900</v>
+        <v>9619600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>9828400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>10373500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>10794000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>9425200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>9254200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>10151800</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3">
         <v>9551300</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>4753100</v>
       </c>
       <c r="E47" s="3">
-        <v>6145700</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+        <v>5937800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5052000</v>
       </c>
       <c r="G47" s="3">
-        <v>5228900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+        <v>5332400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5612700</v>
       </c>
       <c r="I47" s="3">
-        <v>5519000</v>
+        <v>5707600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>6006300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>6154900</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>2794000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>3422500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>3314400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>3277300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3">
         <v>3806700</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>13528400</v>
       </c>
       <c r="E48" s="3">
-        <v>13174300</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+        <v>12728700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>12601100</v>
       </c>
       <c r="G48" s="3">
-        <v>13042200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+        <v>12934900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>14475300</v>
       </c>
       <c r="I48" s="3">
-        <v>13387700</v>
+        <v>13685500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>15490400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>14757900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>13436600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>12254800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>12473200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
         <v>10873200</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
         <v>10836600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>22649500</v>
       </c>
       <c r="E49" s="3">
-        <v>18192100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+        <v>17576700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>17200400</v>
       </c>
       <c r="G49" s="3">
-        <v>17802500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+        <v>17957500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>19384400</v>
       </c>
       <c r="I49" s="3">
-        <v>18586100</v>
+        <v>19166200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>20743700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
         <v>20668200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>20652300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>19301700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>19825600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3">
         <v>20535800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3">
         <v>20452500</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>1911300</v>
       </c>
       <c r="E52" s="3">
-        <v>2091100</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+        <v>2020400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1814200</v>
       </c>
       <c r="G52" s="3">
-        <v>1877700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+        <v>1981100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2074900</v>
       </c>
       <c r="I52" s="3">
-        <v>2050400</v>
+        <v>2250500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>2220400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>2426900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>2183600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>1158400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
         <v>1172500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
         <v>1564100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3">
         <v>1508300</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>53291000</v>
       </c>
       <c r="E54" s="3">
-        <v>49109100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
+        <v>47448000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>46507700</v>
       </c>
       <c r="G54" s="3">
-        <v>48135800</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
+        <v>49959300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>50731700</v>
       </c>
       <c r="I54" s="3">
-        <v>51708300</v>
+        <v>50429500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>54289200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>54381400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>49860400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>45562600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>46039700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>46402100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
         <v>46155400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>8454600</v>
       </c>
       <c r="E57" s="3">
-        <v>8016600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+        <v>7745500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6662200</v>
       </c>
       <c r="G57" s="3">
-        <v>6895400</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+        <v>6670900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8203600</v>
       </c>
       <c r="I57" s="3">
-        <v>6904400</v>
+        <v>8285500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>8778900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>8934800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>8151400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>8303100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>7580200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>7632900</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
         <v>7305800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>3526900</v>
       </c>
       <c r="E58" s="3">
-        <v>3562300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+        <v>3441800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3905500</v>
       </c>
       <c r="G58" s="3">
-        <v>4042200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+        <v>5916000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4021100</v>
       </c>
       <c r="I58" s="3">
-        <v>6123100</v>
+        <v>4065800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>4303100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>4384400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>2789300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>4086800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>3603800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
         <v>2964300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
         <v>4284400</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>1212000</v>
       </c>
       <c r="E59" s="3">
-        <v>1336900</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+        <v>1291600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1288400</v>
       </c>
       <c r="G59" s="3">
-        <v>1333500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+        <v>1112700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1201100</v>
       </c>
       <c r="I59" s="3">
-        <v>1151700</v>
+        <v>1146500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>1285300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>1236400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>1395800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>456800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>549800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>623800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>613900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>13193500</v>
       </c>
       <c r="E60" s="3">
-        <v>12915800</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
+        <v>12478900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>11856000</v>
       </c>
       <c r="G60" s="3">
-        <v>12271100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
+        <v>13699600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>13425800</v>
       </c>
       <c r="I60" s="3">
-        <v>14179200</v>
+        <v>13497800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>14367300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>14555600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>12336500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>12846600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>11733800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>11221000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
         <v>12204100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>14880000</v>
       </c>
       <c r="E61" s="3">
-        <v>15616600</v>
+        <v>15088400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>15944700</v>
       </c>
       <c r="G61" s="3">
-        <v>16502900</v>
+        <v>16978900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>14581100</v>
       </c>
       <c r="I61" s="3">
-        <v>17573300</v>
+        <v>15394900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>15603600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>16601400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>14937700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>12676400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>13801600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>14445600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>12857900</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>3726500</v>
       </c>
       <c r="E62" s="3">
-        <v>3067800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+        <v>2964000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3006500</v>
       </c>
       <c r="G62" s="3">
-        <v>3111800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+        <v>3397100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3840000</v>
       </c>
       <c r="I62" s="3">
-        <v>3516000</v>
+        <v>3773500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>4109300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>4069200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>4005300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>3827600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>4212000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
         <v>4661900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
         <v>3987400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>34357100</v>
       </c>
       <c r="E66" s="3">
-        <v>32695300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
+        <v>31589500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>31898200</v>
       </c>
       <c r="G66" s="3">
-        <v>33014900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
+        <v>35130600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>33116800</v>
       </c>
       <c r="I66" s="3">
-        <v>36360400</v>
+        <v>33832400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>35439100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>36483700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>32678800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>30577100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>31093700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>31650200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
         <v>30616500</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>19275300</v>
       </c>
       <c r="E72" s="3">
-        <v>17387000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
+        <v>16798900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>15986200</v>
       </c>
       <c r="G72" s="3">
-        <v>16545800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+        <v>15618600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>16676700</v>
       </c>
       <c r="I72" s="3">
-        <v>16165300</v>
+        <v>15784400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>17846200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>17021300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>16906000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>14669300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>14349100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>13577200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>11286200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>18933800</v>
       </c>
       <c r="E76" s="3">
-        <v>16413700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
+        <v>15858600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>14609500</v>
       </c>
       <c r="G76" s="3">
-        <v>15120900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
+        <v>14828700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>17614900</v>
       </c>
       <c r="I76" s="3">
-        <v>15347900</v>
+        <v>16597100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>18850200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>17897700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>17181600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>14985500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>14946000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>14751900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3">
         <v>15538900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1167500</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
-        <v>105000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-335300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>2498200</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>101500</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>1435900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>1101100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>1172300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>1042000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>1193800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>977300</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="3">
         <v>1119800</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>1223400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>1071700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>1100100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>837800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>954800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>825800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>982500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>3099500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>1978700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>2772700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>2244300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>2454900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>1900700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
         <v>2797200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-690000</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6045,49 +6278,52 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-582500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-851700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-450700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-778500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-405000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-729300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-416700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>-173900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-146700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-925600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>181800</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>-720700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>-17500</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>7100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>26000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>-18700</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
         <v>-75200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3">
         <v>-81900</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3">
         <v>-25800</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>1732400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>1455000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>-174600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>-157100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>-55000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>665600</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>13015600</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10920000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>11424000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12383200</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10389400</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10868900</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>10083300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>14623000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>13461500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13832800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>11852900</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>12641500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>11603600</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>12557400</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>10257800</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8309500</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9202900</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9759400</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7905700</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8755700</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>8381500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>11102100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>10542900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>10821200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>9445000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>9918400</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>8943400</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
         <v>9840000</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2757800</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2610500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2221100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2623800</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2483700</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2113200</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>1701800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>3520900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>2918600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>3011700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>2407900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>2723100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>2660200</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2717400</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-55600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-271600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-258400</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-34900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>18800</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>22000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>16800</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>79700</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1188000</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>949100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1520700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1130300</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>903000</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1446800</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>1614500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>1223400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>1071700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1100100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>837800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>954800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>825800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
         <v>982500</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>9972000</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8965100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10674600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9487400</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8529500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10155900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>9955600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>12305700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>11541700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>11870400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>10275100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>10738600</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>9842100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3">
         <v>10795500</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>3043600</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1954900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>749500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2895700</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1859900</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>713000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>127600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>2317300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>1919900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1962400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>1577800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>1902900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>1761500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1761900</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,99 +1514,103 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>186500</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>46900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-55600</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>177500</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44600</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-108000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>113200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>116500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>101700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>171300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>65100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>58300</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>78600</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>5106500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>2807500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>3643000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1581,263 +1618,275 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>3654000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>3108000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3164300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>2586900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>2922800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>2645700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>2823000</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>257500</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>246500</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>244900</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>234600</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>267800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>260700</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>319900</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>300000</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>281500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>260700</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>319900</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300000</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>281500</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>278900</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
         <v>278300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
         <v>246800</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
         <v>248800</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>2972700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1755300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>412400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2828300</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>392300</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>-241100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>2110700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>1736400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1782600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>1470200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
         <v>1689700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="3">
         <v>1573000</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1591700</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>391600</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>480000</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>211600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>372600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>456700</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>201400</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>55600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>551000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>515300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>513400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>337100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>424100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
         <v>473500</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3">
         <v>363900</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>2581100</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1275300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
-        <v>200700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2455700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1213300</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>191000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>-296700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>1559700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>1221100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1269300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>1133100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>1265600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>1099600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1227800</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>2498200</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1128000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>101500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2376800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>-324000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>1435900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>1101100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1140300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>1042000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>1143300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>977300</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1119800</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,30 +2216,30 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>31900</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3">
         <v>50500</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-186500</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-46900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>55600</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-177500</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>52900</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>108000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-113200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-116500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-101700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-171300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-65100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>-58300</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-78600</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>2498200</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1128000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
-        <v>101500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2376800</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>-324000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>1435900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>1101100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1172300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>1042000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>1193800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>977300</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1119800</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>2498200</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1128000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>101500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2376800</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>-324000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>1435900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>1101100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1172300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>1042000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>1193800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>977300</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1119800</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,28 +2833,29 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3543300</v>
+        <v>3371100</v>
       </c>
       <c r="E41" s="3">
-        <v>2145800</v>
+        <v>2041500</v>
       </c>
       <c r="F41" s="3">
-        <v>4363600</v>
+        <v>4151600</v>
       </c>
       <c r="G41" s="3">
-        <v>4653800</v>
+        <v>4427700</v>
       </c>
       <c r="H41" s="3">
-        <v>1986500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1910200</v>
+        <v>1890000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -2776,50 +2863,53 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>2125900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>2059900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3434000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>2252000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>2739900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
         <v>3112400</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
         <v>3562500</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,28 +2979,31 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4100700</v>
+        <v>3901500</v>
       </c>
       <c r="E43" s="3">
-        <v>4381100</v>
+        <v>4168200</v>
       </c>
       <c r="F43" s="3">
-        <v>3230200</v>
+        <v>3073200</v>
       </c>
       <c r="G43" s="3">
-        <v>4567600</v>
+        <v>4345700</v>
       </c>
       <c r="H43" s="3">
-        <v>4212000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5083600</v>
+        <v>4007300</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2918,70 +3011,73 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>4507400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>5482000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>8610300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>4480900</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>3994300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
         <v>4196200</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
         <v>3637600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2659600</v>
+        <v>2530400</v>
       </c>
       <c r="E44" s="3">
-        <v>2558200</v>
+        <v>2433900</v>
       </c>
       <c r="F44" s="3">
-        <v>2136000</v>
+        <v>2032200</v>
       </c>
       <c r="G44" s="3">
-        <v>2359600</v>
+        <v>2245000</v>
       </c>
       <c r="H44" s="3">
-        <v>2414200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2481800</v>
+        <v>2296900</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2989,70 +3085,73 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>2583500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>2676300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2271200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>2223500</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
         <v>2035300</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3">
         <v>2251800</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1899200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>145100</v>
+        <v>138000</v>
       </c>
       <c r="E45" s="3">
-        <v>99300</v>
+        <v>94400</v>
       </c>
       <c r="F45" s="3">
-        <v>110200</v>
+        <v>104800</v>
       </c>
       <c r="G45" s="3">
-        <v>172400</v>
+        <v>164000</v>
       </c>
       <c r="H45" s="3">
-        <v>571600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>144000</v>
+        <v>543900</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3060,70 +3159,73 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>611700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>155300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>967600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>468800</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>484700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
         <v>591300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
         <v>451900</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10448700</v>
+        <v>9941000</v>
       </c>
       <c r="E46" s="3">
-        <v>9184400</v>
+        <v>8738100</v>
       </c>
       <c r="F46" s="3">
-        <v>9840000</v>
+        <v>9361900</v>
       </c>
       <c r="G46" s="3">
-        <v>11753500</v>
+        <v>11182300</v>
       </c>
       <c r="H46" s="3">
-        <v>9184400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>9619600</v>
+        <v>8738100</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -3131,70 +3233,73 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>9828400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>10373500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>10794000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>9425200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>9254200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3">
         <v>10151800</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
         <v>9551300</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4753100</v>
+        <v>4522100</v>
       </c>
       <c r="E47" s="3">
-        <v>5937800</v>
+        <v>5649300</v>
       </c>
       <c r="F47" s="3">
-        <v>5052000</v>
+        <v>4806500</v>
       </c>
       <c r="G47" s="3">
-        <v>5332400</v>
+        <v>5073300</v>
       </c>
       <c r="H47" s="3">
-        <v>5612700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5707600</v>
+        <v>5340000</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3202,70 +3307,73 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>6006300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>6154900</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2794000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>3422500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>3314400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>3277300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
         <v>3806700</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13528400</v>
+        <v>12871000</v>
       </c>
       <c r="E48" s="3">
-        <v>12728700</v>
+        <v>12110200</v>
       </c>
       <c r="F48" s="3">
-        <v>12601100</v>
+        <v>11988800</v>
       </c>
       <c r="G48" s="3">
-        <v>12934900</v>
+        <v>12306400</v>
       </c>
       <c r="H48" s="3">
-        <v>14475300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>13685500</v>
+        <v>13771900</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3273,70 +3381,73 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>15490400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>14757900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>13436600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>12254800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>12473200</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
         <v>10873200</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
         <v>10836600</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22649500</v>
+        <v>21548900</v>
       </c>
       <c r="E49" s="3">
-        <v>17576700</v>
+        <v>16722600</v>
       </c>
       <c r="F49" s="3">
-        <v>17200400</v>
+        <v>16364600</v>
       </c>
       <c r="G49" s="3">
-        <v>17957500</v>
+        <v>17084900</v>
       </c>
       <c r="H49" s="3">
-        <v>19384400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>19166200</v>
+        <v>18442400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3344,50 +3455,53 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>20743700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>20668200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>20652300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>19301700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>19825600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
         <v>20535800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3">
         <v>20452500</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,28 +3645,31 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1911300</v>
+        <v>1818400</v>
       </c>
       <c r="E52" s="3">
-        <v>2020400</v>
+        <v>1922200</v>
       </c>
       <c r="F52" s="3">
-        <v>1814200</v>
+        <v>1726000</v>
       </c>
       <c r="G52" s="3">
-        <v>1981100</v>
+        <v>1884800</v>
       </c>
       <c r="H52" s="3">
-        <v>2074900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2250500</v>
+        <v>1974100</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3557,50 +3677,53 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>2220400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>2426900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2183600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>1158400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>1172500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3">
         <v>1564100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1508300</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,28 +3793,31 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>53291000</v>
+        <v>50701400</v>
       </c>
       <c r="E54" s="3">
-        <v>47448000</v>
+        <v>45142400</v>
       </c>
       <c r="F54" s="3">
-        <v>46507700</v>
+        <v>44247800</v>
       </c>
       <c r="G54" s="3">
-        <v>49959300</v>
+        <v>47531700</v>
       </c>
       <c r="H54" s="3">
-        <v>50731700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>50429500</v>
+        <v>48266500</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -3699,50 +3825,53 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>54289200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>54381400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>49860400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>45562600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>46039700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3">
         <v>46402100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
         <v>46155400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,28 +3925,29 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8454600</v>
+        <v>8043700</v>
       </c>
       <c r="E57" s="3">
-        <v>7745500</v>
+        <v>7369100</v>
       </c>
       <c r="F57" s="3">
-        <v>6662200</v>
+        <v>6338500</v>
       </c>
       <c r="G57" s="3">
-        <v>6670900</v>
+        <v>6346800</v>
       </c>
       <c r="H57" s="3">
-        <v>8203600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>8285500</v>
+        <v>7805000</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -3824,70 +3955,73 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>8778900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>8934800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>8151400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>8303100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>7580200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>7632900</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>7305800</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3526900</v>
+        <v>3355500</v>
       </c>
       <c r="E58" s="3">
-        <v>3441800</v>
+        <v>3274600</v>
       </c>
       <c r="F58" s="3">
-        <v>3905500</v>
+        <v>3715700</v>
       </c>
       <c r="G58" s="3">
-        <v>5916000</v>
+        <v>5628500</v>
       </c>
       <c r="H58" s="3">
-        <v>4021100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4065800</v>
+        <v>3825700</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -3895,70 +4029,73 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>4303100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>4384400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2789300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>4086800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>3603800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
         <v>2964300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
         <v>4284400</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1212000</v>
+        <v>1153100</v>
       </c>
       <c r="E59" s="3">
-        <v>1291600</v>
+        <v>1228900</v>
       </c>
       <c r="F59" s="3">
-        <v>1288400</v>
+        <v>1225800</v>
       </c>
       <c r="G59" s="3">
-        <v>1112700</v>
+        <v>1058700</v>
       </c>
       <c r="H59" s="3">
-        <v>1201100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1146500</v>
+        <v>1142700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -3966,70 +4103,73 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>1285300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>1236400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1395800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>456800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>549800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>623800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>613900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13193500</v>
+        <v>12552400</v>
       </c>
       <c r="E60" s="3">
-        <v>12478900</v>
+        <v>11872500</v>
       </c>
       <c r="F60" s="3">
-        <v>11856000</v>
+        <v>11279900</v>
       </c>
       <c r="G60" s="3">
-        <v>13699600</v>
+        <v>13033900</v>
       </c>
       <c r="H60" s="3">
-        <v>13425800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>13497800</v>
+        <v>12773400</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -4037,70 +4177,73 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>14367300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>14555600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>12336500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>12846600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>11733800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>11221000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>12204100</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14880000</v>
+        <v>14157000</v>
       </c>
       <c r="E61" s="3">
-        <v>15088400</v>
+        <v>14355200</v>
       </c>
       <c r="F61" s="3">
-        <v>15944700</v>
+        <v>15169900</v>
       </c>
       <c r="G61" s="3">
-        <v>16978900</v>
+        <v>16153900</v>
       </c>
       <c r="H61" s="3">
-        <v>14581100</v>
+        <v>13872600</v>
       </c>
       <c r="I61" s="3">
-        <v>15394900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4109,69 +4252,72 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>15603600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>16601400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>14937700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>12676400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>13801600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>14445600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>12857900</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3726500</v>
+        <v>3545500</v>
       </c>
       <c r="E62" s="3">
-        <v>2964000</v>
+        <v>2820000</v>
       </c>
       <c r="F62" s="3">
-        <v>3006500</v>
+        <v>2860500</v>
       </c>
       <c r="G62" s="3">
-        <v>3397100</v>
+        <v>3232000</v>
       </c>
       <c r="H62" s="3">
-        <v>3840000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3773500</v>
+        <v>3653400</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4179,50 +4325,53 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>4109300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>4069200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4005300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>3827600</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>4212000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>4661900</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
         <v>3987400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,28 +4589,31 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34357100</v>
+        <v>32687600</v>
       </c>
       <c r="E66" s="3">
-        <v>31589500</v>
+        <v>30054500</v>
       </c>
       <c r="F66" s="3">
-        <v>31898200</v>
+        <v>30348200</v>
       </c>
       <c r="G66" s="3">
-        <v>35130600</v>
+        <v>33423500</v>
       </c>
       <c r="H66" s="3">
-        <v>33116800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>33832400</v>
+        <v>31507500</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -4463,50 +4621,53 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>35439100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>36483700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>32678800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>30577100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>31093700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>31650200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>30616500</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,28 +4987,31 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19275300</v>
+        <v>18338700</v>
       </c>
       <c r="E72" s="3">
-        <v>16798900</v>
+        <v>15982600</v>
       </c>
       <c r="F72" s="3">
-        <v>15986200</v>
+        <v>15209400</v>
       </c>
       <c r="G72" s="3">
-        <v>15618600</v>
+        <v>14859600</v>
       </c>
       <c r="H72" s="3">
-        <v>16676700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>15784400</v>
+        <v>15866400</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -4845,50 +5019,53 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>17846200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>17021300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>16906000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>14669300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>14349100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>13577200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>11286200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,28 +5283,31 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18933800</v>
+        <v>18013800</v>
       </c>
       <c r="E76" s="3">
-        <v>15858600</v>
+        <v>15088000</v>
       </c>
       <c r="F76" s="3">
-        <v>14609500</v>
+        <v>13899600</v>
       </c>
       <c r="G76" s="3">
-        <v>14828700</v>
+        <v>14108200</v>
       </c>
       <c r="H76" s="3">
-        <v>17614900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>16597100</v>
+        <v>16759000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -5129,50 +5315,53 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>18850200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>17897700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>17181600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>14985500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>14946000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
         <v>14751900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>15538900</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>2498200</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1128000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
-        <v>101500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2376800</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>-324000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>1435900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>1101100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1172300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>1042000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>1193800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>977300</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1119800</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+        <v>2033200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>903000</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+        <v>2982900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>1223400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>1071700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1100100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>837800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>954800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>825800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>982500</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>4339500</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>1640900</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+        <v>3254900</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>3099500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>1978700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2772700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>2244300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>2454900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>1900700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>2797200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+        <v>-1374200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-755600</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+        <v>-1557900</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-690000</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-2363300</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-1650300</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+        <v>-1492500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6260,19 +6494,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-826200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-600900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-841700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6281,49 +6515,52 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-582500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-851700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-450700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-778500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-405000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-729300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-416700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>-2992300</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>-2352900</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+        <v>1284900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-173900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-146700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-925600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>181800</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-720700</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+        <v>16600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>10400</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>-17500</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>7100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>26000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>-18700</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>-75200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
         <v>-81900</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-25800</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>-999500</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>-2351900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+        <v>2939300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>1732400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1455000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-174600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>-157100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>-55000</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>665600</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>12383200</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10389400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10868900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D8" s="3">
+        <v>13449900</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11900000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9984000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10444800</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>10083300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>14623000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>13461500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>13832800</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>11852900</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>12641500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>11603600</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>12557400</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9759400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7905700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8755700</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>10486700</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9378600</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7597200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8414100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>8381500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>11102100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>10542900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>10821200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>9445000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>9918400</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
         <v>8943400</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
         <v>9840000</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2623800</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2483700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2113200</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2963300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2521400</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2386800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2030700</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>1701800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>3520900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>2918600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>3011700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>2407900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>2723100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>2660200</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2717400</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-258400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-248400</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-34900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>18800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>5900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>22000</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>16800</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>79700</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1130300</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>903000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1446800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>929600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1086200</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>867700</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1390400</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>1614500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>1223400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>1071700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>1100100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>837800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>954800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3">
         <v>825800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3">
         <v>982500</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
-        <v>9487400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>8529500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10155900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9117200</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8196600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9759600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>9955600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>12305700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>11541700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>11870400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>10275100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>10738600</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3">
         <v>9842100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3">
         <v>10795500</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>2895700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1859900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>713000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2782700</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1787300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>685200</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>127600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>2317300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>1919900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>1962400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>1577800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>1902900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>1761500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>1761900</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,105 +1548,109 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>177500</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>44600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>170600</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>42900</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-108000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>113200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>116500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>101700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>171300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>65100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>58300</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>78600</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>5106500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2807500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3643000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4907200</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2698000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3500900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1621,272 +1658,284 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>3654000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>3108000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>3164300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>2586900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>2922800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>2645700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>2823000</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>244900</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>234600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>267800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>213400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>235400</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>225400</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>257300</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>260700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>319900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>300000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>281500</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
         <v>278900</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
         <v>278300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
         <v>246800</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
         <v>248800</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2828300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1670000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>392300</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>1996800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2717900</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1604800</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>377000</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>-241100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>2110700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>1736400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>1782600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
         <v>1470200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
         <v>1689700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="3">
         <v>1573000</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1591700</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>372600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>456700</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>201400</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>545600</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>358100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>438900</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>193500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>55600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>551000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>515300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>513400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
         <v>337100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
         <v>424100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3">
         <v>473500</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="3">
         <v>363900</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
-        <v>2455700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1213300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>191000</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2359800</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>-296700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>1559700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>1221100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>1269300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>1133100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>1265600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="3">
         <v>1099600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1227800</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
-        <v>2376800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1073200</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>96500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2284000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>-324000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>1435900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>1101100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>1140300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>1042000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>1143300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="3">
         <v>977300</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1119800</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,30 +2280,30 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>31900</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
         <v>50500</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>-177500</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-44600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>52900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-170600</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>108000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-113200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-116500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-101700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-171300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>-65100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>-58300</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-78600</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
-        <v>2376800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1073200</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>96500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2284000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>-324000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>1435900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>1101100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>1172300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>1042000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>1193800</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3">
         <v>977300</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1119800</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
-        <v>2376800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1073200</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3">
-        <v>96500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2284000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>-324000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>1435900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>1101100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>1172300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>1042000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>1193800</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3">
         <v>977300</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1119800</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,28 +2920,29 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3371100</v>
+        <v>2881500</v>
       </c>
       <c r="E41" s="3">
-        <v>2041500</v>
+        <v>3239600</v>
       </c>
       <c r="F41" s="3">
-        <v>4151600</v>
+        <v>1961900</v>
       </c>
       <c r="G41" s="3">
-        <v>4427700</v>
+        <v>3989600</v>
       </c>
       <c r="H41" s="3">
-        <v>1890000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+        <v>4254900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1816300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -2866,50 +2953,53 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>2125900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>2059900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>3434000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>2252000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>2739900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3">
         <v>3112400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="3">
         <v>3562500</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,28 +3072,31 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3901500</v>
+        <v>5059800</v>
       </c>
       <c r="E43" s="3">
-        <v>4168200</v>
+        <v>3749200</v>
       </c>
       <c r="F43" s="3">
-        <v>3073200</v>
+        <v>4005600</v>
       </c>
       <c r="G43" s="3">
-        <v>4345700</v>
+        <v>2953300</v>
       </c>
       <c r="H43" s="3">
-        <v>4007300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+        <v>4176100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3851000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -3014,70 +3107,73 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>4507400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>5482000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>8610300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>4480900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
         <v>3994300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
         <v>4196200</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
         <v>3637600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2530400</v>
+        <v>3134800</v>
       </c>
       <c r="E44" s="3">
-        <v>2433900</v>
+        <v>2431700</v>
       </c>
       <c r="F44" s="3">
-        <v>2032200</v>
+        <v>2338900</v>
       </c>
       <c r="G44" s="3">
-        <v>2245000</v>
+        <v>1952900</v>
       </c>
       <c r="H44" s="3">
-        <v>2296900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+        <v>2157400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2207200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3088,70 +3184,73 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>2583500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>2676300</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>2271200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
         <v>2223500</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3">
         <v>2035300</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3">
         <v>2251800</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1899200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>138000</v>
+        <v>616400</v>
       </c>
       <c r="E45" s="3">
-        <v>94400</v>
+        <v>132700</v>
       </c>
       <c r="F45" s="3">
-        <v>104800</v>
+        <v>90800</v>
       </c>
       <c r="G45" s="3">
-        <v>164000</v>
+        <v>100700</v>
       </c>
       <c r="H45" s="3">
-        <v>543900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+        <v>157600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>522600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3162,70 +3261,73 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>611700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>155300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>967600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>468800</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>484700</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
         <v>591300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
         <v>451900</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9941000</v>
+        <v>11734400</v>
       </c>
       <c r="E46" s="3">
-        <v>8738100</v>
+        <v>9553100</v>
       </c>
       <c r="F46" s="3">
-        <v>9361900</v>
+        <v>8397100</v>
       </c>
       <c r="G46" s="3">
-        <v>11182300</v>
+        <v>8996500</v>
       </c>
       <c r="H46" s="3">
-        <v>8738100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+        <v>10746000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8397100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -3236,70 +3338,73 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>9828400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>10373500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>10794000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>9425200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>9254200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3">
         <v>10151800</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="3">
         <v>9551300</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4522100</v>
+        <v>4600000</v>
       </c>
       <c r="E47" s="3">
-        <v>5649300</v>
+        <v>4345700</v>
       </c>
       <c r="F47" s="3">
-        <v>4806500</v>
+        <v>5428800</v>
       </c>
       <c r="G47" s="3">
-        <v>5073300</v>
+        <v>4619000</v>
       </c>
       <c r="H47" s="3">
-        <v>5340000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+        <v>4875300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5131600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3310,70 +3415,73 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>6006300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>6154900</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>2794000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>3422500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>3314400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3">
         <v>3277300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3">
         <v>3806700</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12871000</v>
+        <v>12664000</v>
       </c>
       <c r="E48" s="3">
-        <v>12110200</v>
+        <v>12368800</v>
       </c>
       <c r="F48" s="3">
-        <v>11988800</v>
+        <v>11637700</v>
       </c>
       <c r="G48" s="3">
-        <v>12306400</v>
+        <v>11521000</v>
       </c>
       <c r="H48" s="3">
-        <v>13771900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+        <v>11826200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>13234500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3384,70 +3492,73 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>15490400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>14757900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>13436600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>12254800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
         <v>12473200</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
         <v>10873200</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
         <v>10836600</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21548900</v>
+        <v>21301500</v>
       </c>
       <c r="E49" s="3">
-        <v>16722600</v>
+        <v>20708000</v>
       </c>
       <c r="F49" s="3">
-        <v>16364600</v>
+        <v>16070100</v>
       </c>
       <c r="G49" s="3">
-        <v>17084900</v>
+        <v>15726000</v>
       </c>
       <c r="H49" s="3">
-        <v>18442400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+        <v>16418200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>17722800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3458,50 +3569,53 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
         <v>20743700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>20668200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>20652300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>19301700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3">
         <v>19825600</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3">
         <v>20535800</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3">
         <v>20452500</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,28 +3765,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1818400</v>
+        <v>1913000</v>
       </c>
       <c r="E52" s="3">
-        <v>1922200</v>
+        <v>1747400</v>
       </c>
       <c r="F52" s="3">
-        <v>1726000</v>
+        <v>1847200</v>
       </c>
       <c r="G52" s="3">
-        <v>1884800</v>
+        <v>1658700</v>
       </c>
       <c r="H52" s="3">
-        <v>1974100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+        <v>1811300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1897100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3680,50 +3800,53 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>2220400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>2426900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>2183600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
         <v>1158400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
         <v>1172500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3">
         <v>1564100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1508300</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,28 +3919,31 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50701400</v>
+        <v>52212900</v>
       </c>
       <c r="E54" s="3">
-        <v>45142400</v>
+        <v>48723000</v>
       </c>
       <c r="F54" s="3">
-        <v>44247800</v>
+        <v>43380900</v>
       </c>
       <c r="G54" s="3">
-        <v>47531700</v>
+        <v>42521200</v>
       </c>
       <c r="H54" s="3">
-        <v>48266500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+        <v>45676900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>46383100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -3828,50 +3954,53 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>54289200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>54381400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>49860400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>45562600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>46039700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
         <v>46402100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="3">
         <v>46155400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,28 +4056,29 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8043700</v>
+        <v>9067400</v>
       </c>
       <c r="E57" s="3">
-        <v>7369100</v>
+        <v>7729900</v>
       </c>
       <c r="F57" s="3">
-        <v>6338500</v>
+        <v>7081500</v>
       </c>
       <c r="G57" s="3">
-        <v>6346800</v>
+        <v>6091100</v>
       </c>
       <c r="H57" s="3">
-        <v>7805000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+        <v>6099100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7500400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -3958,70 +4089,73 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>8778900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>8934800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>8151400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>8303100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>7580200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
         <v>7632900</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
         <v>7305800</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3355500</v>
+        <v>3546800</v>
       </c>
       <c r="E58" s="3">
-        <v>3274600</v>
+        <v>3224600</v>
       </c>
       <c r="F58" s="3">
-        <v>3715700</v>
+        <v>3146800</v>
       </c>
       <c r="G58" s="3">
-        <v>5628500</v>
+        <v>3570700</v>
       </c>
       <c r="H58" s="3">
-        <v>3825700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+        <v>5408900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3676400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -4032,70 +4166,73 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>4303100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>4384400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>2789300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>4086800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
         <v>3603800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
         <v>2964300</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3">
         <v>4284400</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1153100</v>
+        <v>1667700</v>
       </c>
       <c r="E59" s="3">
-        <v>1228900</v>
+        <v>1108100</v>
       </c>
       <c r="F59" s="3">
-        <v>1225800</v>
+        <v>1180900</v>
       </c>
       <c r="G59" s="3">
-        <v>1058700</v>
+        <v>1177900</v>
       </c>
       <c r="H59" s="3">
-        <v>1142700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+        <v>1017300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1098100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4106,70 +4243,73 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>1285300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>1236400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>1395800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>456800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>549800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>623800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>613900</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12552400</v>
+        <v>14281800</v>
       </c>
       <c r="E60" s="3">
-        <v>11872500</v>
+        <v>12062600</v>
       </c>
       <c r="F60" s="3">
-        <v>11279900</v>
+        <v>11409300</v>
       </c>
       <c r="G60" s="3">
-        <v>13033900</v>
+        <v>10839700</v>
       </c>
       <c r="H60" s="3">
-        <v>12773400</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+        <v>12525300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>12275000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -4180,70 +4320,73 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>14367300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>14555600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>12336500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>12846600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>11733800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
         <v>11221000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
         <v>12204100</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14157000</v>
+        <v>12992100</v>
       </c>
       <c r="E61" s="3">
-        <v>14355200</v>
+        <v>13604500</v>
       </c>
       <c r="F61" s="3">
-        <v>15169900</v>
+        <v>13795000</v>
       </c>
       <c r="G61" s="3">
-        <v>16153900</v>
+        <v>14578000</v>
       </c>
       <c r="H61" s="3">
-        <v>13872600</v>
+        <v>15523500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>13331200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4255,69 +4398,72 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>15603600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>16601400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>14937700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>12676400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>13801600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>14445600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>12857900</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3545500</v>
+        <v>3439000</v>
       </c>
       <c r="E62" s="3">
-        <v>2820000</v>
+        <v>3407100</v>
       </c>
       <c r="F62" s="3">
-        <v>2860500</v>
+        <v>2709900</v>
       </c>
       <c r="G62" s="3">
-        <v>3232000</v>
+        <v>2748800</v>
       </c>
       <c r="H62" s="3">
-        <v>3653400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+        <v>3105900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3510800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4328,50 +4474,53 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>4109300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>4069200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>4005300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>3827600</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
         <v>4212000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
         <v>4661900</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3">
         <v>3987400</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,28 +4747,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32687600</v>
+        <v>33118700</v>
       </c>
       <c r="E66" s="3">
-        <v>30054500</v>
+        <v>31412100</v>
       </c>
       <c r="F66" s="3">
-        <v>30348200</v>
+        <v>28881700</v>
       </c>
       <c r="G66" s="3">
-        <v>33423500</v>
+        <v>29164000</v>
       </c>
       <c r="H66" s="3">
-        <v>31507500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+        <v>32119300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>30278100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -4624,50 +4782,53 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>35439100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>36483700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>32678800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>30577100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>31093700</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
         <v>31650200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
         <v>30616500</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,28 +5161,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>18338700</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3">
-        <v>15982600</v>
+        <v>17623100</v>
       </c>
       <c r="F72" s="3">
-        <v>15209400</v>
+        <v>15359000</v>
       </c>
       <c r="G72" s="3">
-        <v>14859600</v>
+        <v>14615900</v>
       </c>
       <c r="H72" s="3">
-        <v>15866400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+        <v>14279800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>15247300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -5022,50 +5196,53 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>17846200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>17021300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>16906000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>14669300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>14349100</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>13577200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>11286200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,28 +5469,31 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18013800</v>
+        <v>19094200</v>
       </c>
       <c r="E76" s="3">
-        <v>15088000</v>
+        <v>17310900</v>
       </c>
       <c r="F76" s="3">
-        <v>13899600</v>
+        <v>14499200</v>
       </c>
       <c r="G76" s="3">
-        <v>14108200</v>
+        <v>13357200</v>
       </c>
       <c r="H76" s="3">
-        <v>16759000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+        <v>13557700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>16105000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -5318,50 +5504,53 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>18850200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>17897700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>17181600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>14985500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>14946000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3">
         <v>14751900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="3">
         <v>15538900</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3">
-        <v>2376800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1073200</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3">
-        <v>96500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2284000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>-324000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>1435900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>1101100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>1172300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>1042000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>1193800</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="3">
         <v>977300</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1119800</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2033200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>903000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2982900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="D83" s="3">
+        <v>929600</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1953900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>867700</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2866500</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>1223400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>1071700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>1100100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>837800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>954800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>825800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3">
         <v>982500</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>4339500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1640900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>3254900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="D89" s="3">
+        <v>2163400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4170100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1576900</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3127800</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>3099500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>1978700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>2772700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>2244300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>2454900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
         <v>1900700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="3">
         <v>2797200</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1374200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-755600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1557900</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="D91" s="3">
+        <v>-955500</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1320600</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-726100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1497100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-690000</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-2363300</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1650300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1492500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="D94" s="3">
+        <v>-1088200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2271100</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1585900</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1434300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,31 +6718,32 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-650300</v>
       </c>
       <c r="E96" s="3">
-        <v>-826200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-793900</v>
       </c>
       <c r="G96" s="3">
-        <v>-600900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-577500</v>
       </c>
       <c r="I96" s="3">
-        <v>-841700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-808900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6518,49 +6752,52 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-582500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-851700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-450700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-778500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-405000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-729300</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-416700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-2992300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-2352900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1284900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="D100" s="3">
+        <v>-1512100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2875500</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-2261100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1234800</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-173900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-146700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-925600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>181800</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-720700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>16600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-107900</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="D101" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>-17500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>7100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>26000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
         <v>-18700</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3">
         <v>-75200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3">
         <v>-81900</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-25800</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
-        <v>-999500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-2351900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2939300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-960500</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2260100</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2824600</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>1732400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>1455000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>-174600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>-157100</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>-55000</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3">
         <v>665600</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>13449900</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>11900000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>9984000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13765500</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>12179200</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10218200</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>10444800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>10083300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>14623000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13461500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>13832800</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>11852900</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>12641500</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>11603600</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>12557400</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>10486700</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9378600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7597200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10732700</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9598600</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7775400</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>8414100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>8381500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>11102100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>10542900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>10821200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>9445000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>9918400</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
         <v>8943400</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
         <v>9840000</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2963300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2521400</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2386800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3032800</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2580600</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2442800</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>2030700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>1701800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>3520900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2918600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>3011700</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>2407900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>2723100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2660200</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2717400</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-50900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-248400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="E14" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-254200</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-34900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>18800</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>5900</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>22000</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>16800</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>79700</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>929600</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1086200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>867700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>951400</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1111700</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>888100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>1390400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>1614500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>1223400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1071700</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>1100100</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>837800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>954800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
         <v>825800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3">
         <v>982500</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9117200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8196600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="E17" s="3">
+        <v>11639200</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9331100</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8388900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>9759600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>9955600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>12305700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>11541700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>11870400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>10275100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>10738600</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3">
         <v>9842100</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="3">
         <v>10795500</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2782700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1787300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="E18" s="3">
+        <v>2126300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2848000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1829300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>685200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>127600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>2317300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1919900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>1962400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>1577800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>1902900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1761500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>1761900</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>170600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>42900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="E20" s="3">
+        <v>135800</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>174600</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>43900</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-108000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>113200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>116500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>101700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>171300</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>65100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>58300</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>78600</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1637,305 +1674,317 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>4907200</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>2698000</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>3500900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>3654000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3108000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>3164300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>2586900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>2922800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>2645700</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>2823000</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>213400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>235400</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>225400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>218500</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>240900</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>230700</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>257300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>260700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>319900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>281500</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
         <v>278900</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
         <v>278300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
         <v>246800</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
         <v>248800</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1996800</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2717900</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1604800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2043600</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2781700</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1642500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>377000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>-241100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>2110700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1736400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>1782600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
         <v>1470200</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="3">
         <v>1689700</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1573000</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1591700</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>545600</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>358100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>438900</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>558400</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>366500</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>449200</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>193500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>55600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>551000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>515300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>513400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>337100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
         <v>424100</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3">
         <v>473500</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="3">
         <v>363900</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2359800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1166000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="E26" s="3">
+        <v>1485300</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2415200</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1193300</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>183500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>-296700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>1559700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1221100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>1269300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>1133100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>1265600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1099600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1227800</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2284000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1031300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="E27" s="3">
+        <v>1291300</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2337600</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>92800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>-324000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>1435900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1101100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>1140300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>1042000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>1143300</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3">
         <v>977300</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1119800</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,30 +2344,30 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>31900</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
         <v>50500</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-170600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-42900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="E32" s="3">
+        <v>-135800</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-174600</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>50900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>108000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-113200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-116500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-101700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-171300</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>-65100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-58300</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-78600</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2284000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1031300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="E33" s="3">
+        <v>1291300</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2337600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>92800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>-324000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>1435900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1101100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>1172300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>1042000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>1193800</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3">
         <v>977300</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1119800</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2284000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1031300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="E35" s="3">
+        <v>1291300</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2337600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>92800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>-324000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>1435900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1101100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>1172300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>1042000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>1193800</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3">
         <v>977300</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1119800</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,28 +3007,29 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2881500</v>
+        <v>2949100</v>
       </c>
       <c r="E41" s="3">
-        <v>3239600</v>
+        <v>3315600</v>
       </c>
       <c r="F41" s="3">
-        <v>1961900</v>
+        <v>2007900</v>
       </c>
       <c r="G41" s="3">
-        <v>3989600</v>
+        <v>4083200</v>
       </c>
       <c r="H41" s="3">
-        <v>4254900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1816300</v>
+        <v>4354700</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -2956,50 +3043,53 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>2125900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2059900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>3434000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>2252000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
         <v>2739900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
         <v>3112400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3">
         <v>3562500</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,28 +3165,31 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5059800</v>
+        <v>5178500</v>
       </c>
       <c r="E43" s="3">
-        <v>3749200</v>
+        <v>3837200</v>
       </c>
       <c r="F43" s="3">
-        <v>4005600</v>
+        <v>4099500</v>
       </c>
       <c r="G43" s="3">
-        <v>2953300</v>
+        <v>3022600</v>
       </c>
       <c r="H43" s="3">
-        <v>4176100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3851000</v>
+        <v>4274100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -3110,70 +3203,73 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>4507400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5482000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>8610300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>4480900</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
         <v>3994300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4196200</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
         <v>3637600</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3134800</v>
+        <v>3208400</v>
       </c>
       <c r="E44" s="3">
-        <v>2431700</v>
+        <v>2488700</v>
       </c>
       <c r="F44" s="3">
-        <v>2338900</v>
+        <v>2393800</v>
       </c>
       <c r="G44" s="3">
-        <v>1952900</v>
+        <v>1998700</v>
       </c>
       <c r="H44" s="3">
-        <v>2157400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2207200</v>
+        <v>2208000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3187,70 +3283,73 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>2583500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2676300</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>2271200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
         <v>2223500</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3">
         <v>2035300</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="3">
         <v>2251800</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="3">
         <v>1899200</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>616400</v>
+        <v>673700</v>
       </c>
       <c r="E45" s="3">
-        <v>132700</v>
+        <v>135800</v>
       </c>
       <c r="F45" s="3">
-        <v>90800</v>
+        <v>92900</v>
       </c>
       <c r="G45" s="3">
-        <v>100700</v>
+        <v>103100</v>
       </c>
       <c r="H45" s="3">
-        <v>157600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>522600</v>
+        <v>161300</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3264,70 +3363,73 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>611700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>155300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>967600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>468800</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
         <v>484700</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
         <v>591300</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
         <v>451900</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11734400</v>
+        <v>12009700</v>
       </c>
       <c r="E46" s="3">
-        <v>9553100</v>
+        <v>9777200</v>
       </c>
       <c r="F46" s="3">
-        <v>8397100</v>
+        <v>8594100</v>
       </c>
       <c r="G46" s="3">
-        <v>8996500</v>
+        <v>9207600</v>
       </c>
       <c r="H46" s="3">
-        <v>10746000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>8397100</v>
+        <v>10998100</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -3341,70 +3443,73 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>9828400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>10373500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>10794000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>9425200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3">
         <v>9254200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
         <v>10151800</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3">
         <v>9551300</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4600000</v>
+        <v>4707900</v>
       </c>
       <c r="E47" s="3">
-        <v>4345700</v>
+        <v>4447600</v>
       </c>
       <c r="F47" s="3">
-        <v>5428800</v>
+        <v>5556200</v>
       </c>
       <c r="G47" s="3">
-        <v>4619000</v>
+        <v>4727300</v>
       </c>
       <c r="H47" s="3">
-        <v>4875300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5131600</v>
+        <v>4989700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3418,70 +3523,73 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>6006300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>6154900</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>2794000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>3422500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>3314400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
         <v>3277300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3">
         <v>3806700</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12664000</v>
+        <v>12961100</v>
       </c>
       <c r="E48" s="3">
-        <v>12368800</v>
+        <v>12658900</v>
       </c>
       <c r="F48" s="3">
-        <v>11637700</v>
+        <v>11910700</v>
       </c>
       <c r="G48" s="3">
-        <v>11521000</v>
+        <v>11791300</v>
       </c>
       <c r="H48" s="3">
-        <v>11826200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>13234500</v>
+        <v>12103600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3495,70 +3603,73 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>15490400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>14757900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>13436600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>12254800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
         <v>12473200</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
         <v>10873200</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
         <v>10836600</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21301500</v>
+        <v>21801200</v>
       </c>
       <c r="E49" s="3">
-        <v>20708000</v>
+        <v>21193800</v>
       </c>
       <c r="F49" s="3">
-        <v>16070100</v>
+        <v>16447100</v>
       </c>
       <c r="G49" s="3">
-        <v>15726000</v>
+        <v>16095000</v>
       </c>
       <c r="H49" s="3">
-        <v>16418200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>17722800</v>
+        <v>16803400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3572,50 +3683,53 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>20743700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>20668200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>20652300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>19301700</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
         <v>19825600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3">
         <v>20535800</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="3">
         <v>20452500</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,28 +3885,31 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1913000</v>
+        <v>1957900</v>
       </c>
       <c r="E52" s="3">
-        <v>1747400</v>
+        <v>1788400</v>
       </c>
       <c r="F52" s="3">
-        <v>1847200</v>
+        <v>1890500</v>
       </c>
       <c r="G52" s="3">
-        <v>1658700</v>
+        <v>1697600</v>
       </c>
       <c r="H52" s="3">
-        <v>1811300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1897100</v>
+        <v>1853800</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3803,50 +3923,53 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>2220400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2426900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>2183600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>1158400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3">
         <v>1172500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1564100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1508300</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,28 +4045,31 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52212900</v>
+        <v>53437900</v>
       </c>
       <c r="E54" s="3">
-        <v>48723000</v>
+        <v>49866100</v>
       </c>
       <c r="F54" s="3">
-        <v>43380900</v>
+        <v>44398700</v>
       </c>
       <c r="G54" s="3">
-        <v>42521200</v>
+        <v>43518700</v>
       </c>
       <c r="H54" s="3">
-        <v>45676900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>46383100</v>
+        <v>46748600</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -3957,50 +4083,53 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>54289200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>54381400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>49860400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>45562600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3">
         <v>46039700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
         <v>46402100</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3">
         <v>46155400</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,28 +4187,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9067400</v>
+        <v>9280100</v>
       </c>
       <c r="E57" s="3">
-        <v>7729900</v>
+        <v>7911200</v>
       </c>
       <c r="F57" s="3">
-        <v>7081500</v>
+        <v>7247700</v>
       </c>
       <c r="G57" s="3">
-        <v>6091100</v>
+        <v>6234000</v>
       </c>
       <c r="H57" s="3">
-        <v>6099100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7500400</v>
+        <v>6242200</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -4092,70 +4223,73 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>8778900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>8934800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>8151400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>8303100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>7580200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>7632900</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>7305800</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3546800</v>
+        <v>3630000</v>
       </c>
       <c r="E58" s="3">
-        <v>3224600</v>
+        <v>3300200</v>
       </c>
       <c r="F58" s="3">
-        <v>3146800</v>
+        <v>3220600</v>
       </c>
       <c r="G58" s="3">
-        <v>3570700</v>
+        <v>3654500</v>
       </c>
       <c r="H58" s="3">
-        <v>5408900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3676400</v>
+        <v>5535800</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -4169,70 +4303,73 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>4303100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4384400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>2789300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>4086800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
         <v>3603800</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2964300</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3">
         <v>4284400</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1667700</v>
+        <v>1706800</v>
       </c>
       <c r="E59" s="3">
-        <v>1108100</v>
+        <v>1134100</v>
       </c>
       <c r="F59" s="3">
-        <v>1180900</v>
+        <v>1208600</v>
       </c>
       <c r="G59" s="3">
-        <v>1177900</v>
+        <v>1205600</v>
       </c>
       <c r="H59" s="3">
-        <v>1017300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1098100</v>
+        <v>1041200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4246,70 +4383,73 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>1285300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1236400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>1395800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>456800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>549800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>623800</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>613900</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14281800</v>
+        <v>14616800</v>
       </c>
       <c r="E60" s="3">
-        <v>12062600</v>
+        <v>12345600</v>
       </c>
       <c r="F60" s="3">
-        <v>11409300</v>
+        <v>11676900</v>
       </c>
       <c r="G60" s="3">
-        <v>10839700</v>
+        <v>11094100</v>
       </c>
       <c r="H60" s="3">
-        <v>12525300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>12275000</v>
+        <v>12819200</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -4323,70 +4463,73 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>14367300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>14555600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>12336500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>12846600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>11733800</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>11221000</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3">
         <v>12204100</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12992100</v>
+        <v>13296900</v>
       </c>
       <c r="E61" s="3">
-        <v>13604500</v>
+        <v>13923700</v>
       </c>
       <c r="F61" s="3">
-        <v>13795000</v>
+        <v>14118700</v>
       </c>
       <c r="G61" s="3">
-        <v>14578000</v>
+        <v>14920000</v>
       </c>
       <c r="H61" s="3">
-        <v>15523500</v>
+        <v>15887700</v>
       </c>
       <c r="I61" s="3">
-        <v>13331200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4401,69 +4544,72 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>15603600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>16601400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>14937700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>12676400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>13801600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>14445600</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>12857900</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3439000</v>
+        <v>3519700</v>
       </c>
       <c r="E62" s="3">
-        <v>3407100</v>
+        <v>3487100</v>
       </c>
       <c r="F62" s="3">
-        <v>2709900</v>
+        <v>2773500</v>
       </c>
       <c r="G62" s="3">
-        <v>2748800</v>
+        <v>2813300</v>
       </c>
       <c r="H62" s="3">
-        <v>3105900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3510800</v>
+        <v>3178800</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4477,50 +4623,53 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>4109300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4069200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>4005300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>3827600</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>4212000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
         <v>4661900</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
         <v>3987400</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,28 +4905,31 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33118700</v>
+        <v>33895700</v>
       </c>
       <c r="E66" s="3">
-        <v>31412100</v>
+        <v>32149100</v>
       </c>
       <c r="F66" s="3">
-        <v>28881700</v>
+        <v>29559300</v>
       </c>
       <c r="G66" s="3">
-        <v>29164000</v>
+        <v>29848200</v>
       </c>
       <c r="H66" s="3">
-        <v>32119300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>30278100</v>
+        <v>32872800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -4785,50 +4943,53 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>35439100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>36483700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>32678800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>30577100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>31093700</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>31650200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
         <v>30616500</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,28 +5335,31 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>18913400</v>
       </c>
       <c r="E72" s="3">
-        <v>17623100</v>
+        <v>18036500</v>
       </c>
       <c r="F72" s="3">
-        <v>15359000</v>
+        <v>15719300</v>
       </c>
       <c r="G72" s="3">
-        <v>14615900</v>
+        <v>14958800</v>
       </c>
       <c r="H72" s="3">
-        <v>14279800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>15247300</v>
+        <v>14614800</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -5199,50 +5373,53 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>17846200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>17021300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>16906000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>14669300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>14349100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>13577200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>11286200</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,28 +5655,31 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19094200</v>
+        <v>19542200</v>
       </c>
       <c r="E76" s="3">
-        <v>17310900</v>
+        <v>17717000</v>
       </c>
       <c r="F76" s="3">
-        <v>14499200</v>
+        <v>14839400</v>
       </c>
       <c r="G76" s="3">
-        <v>13357200</v>
+        <v>13670600</v>
       </c>
       <c r="H76" s="3">
-        <v>13557700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>16105000</v>
+        <v>13875700</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -5507,50 +5693,53 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>18850200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>17897700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>17181600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>14985500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
         <v>14946000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>14751900</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3">
         <v>15538900</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2284000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1031300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="E81" s="3">
+        <v>1291300</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2337600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>92800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>-324000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>1435900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1101100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>1172300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>1042000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>1193800</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="3">
         <v>977300</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1119800</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>929600</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>1953900</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>867700</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>2866500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>1223400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1071700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>1100100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>837800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>954800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>825800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3">
         <v>982500</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>2163400</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>4170100</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
-        <v>1576900</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>3127800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>3099500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1978700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>2772700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>2244300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>2454900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1900700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="3">
         <v>2797200</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-955500</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1320600</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>-726100</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1497100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-690000</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1088200</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2271100</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1585900</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1434300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,35 +6952,36 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-650300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-793900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-577500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-808900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6755,49 +6989,52 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-582500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-851700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-450700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-778500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-405000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-729300</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-416700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,162 +7270,171 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1512100</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>-2875500</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>-2261100</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>1234800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>-173900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-146700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-925600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>181800</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-720700</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>27900</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>16000</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>10000</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>-103700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>-17500</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>7100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>26000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>-18700</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
         <v>-75200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-81900</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-25800</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7192,70 +7444,73 @@
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>-960500</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
-        <v>-2260100</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>2824600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>1732400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>1455000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>-174600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>-157100</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-55000</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3">
         <v>665600</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>16117600</v>
       </c>
       <c r="E8" s="3">
-        <v>13765500</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+        <v>8239700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14267100</v>
       </c>
       <c r="G8" s="3">
-        <v>12179200</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10218200</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+        <v>6086700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12623000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10590600</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>10444800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>10083300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>14623000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>13461500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>13832800</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>11852900</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>12641500</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>11603600</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="3">
         <v>12557400</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10732700</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9598600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7775400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>12889600</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11123800</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9948400</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8058800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>8414100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>8381500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>11102100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>10542900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>10821200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>9445000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
         <v>9918400</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
         <v>8943400</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3">
         <v>9840000</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3032800</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2580600</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2442800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>3228000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3143300</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2674600</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2531800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>2030700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>1701800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>3520900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>2918600</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>3011700</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>2407900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>2723100</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2660200</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3">
         <v>2717400</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-58200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-52100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-254200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-263400</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>-34900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>18800</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>5900</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>22000</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>16800</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>79700</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>951400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1111700</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>888100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>986100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1152200</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>920500</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>1390400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>1614500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>1223400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>1071700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>1100100</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>837800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3">
         <v>954800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3">
         <v>825800</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3">
         <v>982500</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>11639200</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>9331100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8388900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>13690500</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12063300</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9671200</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8694600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>9759600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>9955600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>12305700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>11541700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>11870400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>10275100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3">
         <v>10738600</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3">
         <v>9842100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="3">
         <v>10795500</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2126300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2848000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1829300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>2427100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2203800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2951800</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1895900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>685200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>127600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>2317300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>1919900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>1962400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>1577800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>1902900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>1761500</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3">
         <v>1761900</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,88 +1615,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>135800</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>174600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>43900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>140700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>180900</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-50900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-108000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>113200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>116500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>101700</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>171300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>65100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>58300</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3">
         <v>78600</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1689,302 +1725,314 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>3500900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>3654000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>3108000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>3164300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>2586900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>2922800</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>2645700</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>2823000</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>218500</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>240900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>230700</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>258200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>226400</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>249700</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>239100</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>257300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>260700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>319900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>300000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
         <v>281500</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
         <v>278900</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
         <v>278300</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
         <v>246800</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3">
         <v>248800</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2043600</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2781700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1642500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>2293700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2118100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2883100</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1702300</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>377000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>-241100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>2110700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>1736400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
         <v>1782600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
         <v>1470200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="3">
         <v>1689700</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1573000</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1591700</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>558400</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>366500</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>449200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>617900</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>578700</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>379800</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>465500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>193500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>55600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>551000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>515300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
         <v>513400</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
         <v>337100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3">
         <v>424100</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="3">
         <v>473500</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="3">
         <v>363900</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1485300</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2415200</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1193300</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>1675900</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1539400</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2503200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1236800</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>183500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>-296700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>1559700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>1221100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>1269300</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>1133100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="3">
         <v>1265600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1099600</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="3">
         <v>1227800</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1291300</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2337600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>1499200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1338400</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2422800</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>92800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>-324000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>1435900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>1101100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>1140300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>1042000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="3">
         <v>1143300</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="3">
         <v>977300</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="3">
         <v>1119800</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,30 +2407,30 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
         <v>31900</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3">
         <v>50500</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-135800</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-174600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-43900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-124800</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-140700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>50900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>108000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-113200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-116500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-101700</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>-171300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>-65100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-58300</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-78600</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1291300</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2337600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>1499200</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1338400</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2422800</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>92800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>-324000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>1435900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>1101100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>1172300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>1042000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3">
         <v>1193800</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="3">
         <v>977300</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="3">
         <v>1119800</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1291300</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2337600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>1499200</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1338400</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2422800</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>92800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>-324000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>1435900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>1101100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>1172300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>1042000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3">
         <v>1193800</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="3">
         <v>977300</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="3">
         <v>1119800</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,28 +3093,29 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2949100</v>
+        <v>2925400</v>
       </c>
       <c r="E41" s="3">
-        <v>3315600</v>
+        <v>3056600</v>
       </c>
       <c r="F41" s="3">
-        <v>2007900</v>
+        <v>3436400</v>
       </c>
       <c r="G41" s="3">
-        <v>4083200</v>
+        <v>2081100</v>
       </c>
       <c r="H41" s="3">
-        <v>4354700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+        <v>4232000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4513400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -3046,50 +3132,53 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>2125900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>2059900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>3434000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>2252000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3">
         <v>2739900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="3">
         <v>3112400</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB41" s="3">
         <v>3562500</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,28 +3257,31 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5178500</v>
+        <v>4882700</v>
       </c>
       <c r="E43" s="3">
-        <v>3837200</v>
+        <v>5367200</v>
       </c>
       <c r="F43" s="3">
-        <v>4099500</v>
+        <v>3977000</v>
       </c>
       <c r="G43" s="3">
-        <v>3022600</v>
+        <v>4248900</v>
       </c>
       <c r="H43" s="3">
-        <v>4274100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+        <v>3132700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4429800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -3206,70 +3298,73 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>4507400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>5482000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>8610300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
         <v>4480900</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
         <v>3994300</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
         <v>4196200</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3">
         <v>3637600</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3208400</v>
+        <v>3438500</v>
       </c>
       <c r="E44" s="3">
-        <v>2488700</v>
+        <v>3325300</v>
       </c>
       <c r="F44" s="3">
-        <v>2393800</v>
+        <v>2579400</v>
       </c>
       <c r="G44" s="3">
-        <v>1998700</v>
+        <v>2481000</v>
       </c>
       <c r="H44" s="3">
-        <v>2208000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+        <v>2071600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2288500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3286,70 +3381,73 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>2583500</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>2676300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
         <v>2271200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3">
         <v>2223500</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3">
         <v>2035300</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="3">
         <v>2251800</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB44" s="3">
         <v>1899200</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>673700</v>
+        <v>407300</v>
       </c>
       <c r="E45" s="3">
-        <v>135800</v>
+        <v>698300</v>
       </c>
       <c r="F45" s="3">
-        <v>92900</v>
+        <v>140700</v>
       </c>
       <c r="G45" s="3">
-        <v>103100</v>
+        <v>96300</v>
       </c>
       <c r="H45" s="3">
-        <v>161300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+        <v>106900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>167200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3366,70 +3464,73 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>611700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>155300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>967600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>468800</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
         <v>484700</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
         <v>591300</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3">
         <v>451900</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12009700</v>
+        <v>11653900</v>
       </c>
       <c r="E46" s="3">
-        <v>9777200</v>
+        <v>12447400</v>
       </c>
       <c r="F46" s="3">
-        <v>8594100</v>
+        <v>10133500</v>
       </c>
       <c r="G46" s="3">
-        <v>9207600</v>
+        <v>8907300</v>
       </c>
       <c r="H46" s="3">
-        <v>10998100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+        <v>9543200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>11398900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -3446,70 +3547,73 @@
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>9828400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>10373500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>10794000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>9425200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3">
         <v>9254200</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="3">
         <v>10151800</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="3">
         <v>9551300</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4707900</v>
+        <v>4773700</v>
       </c>
       <c r="E47" s="3">
-        <v>4447600</v>
+        <v>4879500</v>
       </c>
       <c r="F47" s="3">
-        <v>5556200</v>
+        <v>4609700</v>
       </c>
       <c r="G47" s="3">
-        <v>4727300</v>
+        <v>5758700</v>
       </c>
       <c r="H47" s="3">
-        <v>4989700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+        <v>4899600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5171500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3526,70 +3630,73 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>6006300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>6154900</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>2794000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>3422500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3">
         <v>3314400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3">
         <v>3277300</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="3">
         <v>3806700</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12961100</v>
+        <v>14413100</v>
       </c>
       <c r="E48" s="3">
-        <v>12658900</v>
+        <v>13433400</v>
       </c>
       <c r="F48" s="3">
-        <v>11910700</v>
+        <v>13120300</v>
       </c>
       <c r="G48" s="3">
-        <v>11791300</v>
+        <v>12344700</v>
       </c>
       <c r="H48" s="3">
-        <v>12103600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+        <v>12221000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>12544700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3606,70 +3713,73 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>15490400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>14757900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>13436600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
         <v>12254800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
         <v>12473200</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
         <v>10873200</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="3">
         <v>10836600</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21801200</v>
+        <v>22649700</v>
       </c>
       <c r="E49" s="3">
-        <v>21193800</v>
+        <v>22595700</v>
       </c>
       <c r="F49" s="3">
-        <v>16447100</v>
+        <v>21966200</v>
       </c>
       <c r="G49" s="3">
-        <v>16095000</v>
+        <v>17046500</v>
       </c>
       <c r="H49" s="3">
-        <v>16803400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+        <v>16681500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>17415700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3686,50 +3796,53 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>20743700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>20668200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>20652300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3">
         <v>19301700</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3">
         <v>19825600</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3">
         <v>20535800</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB49" s="3">
         <v>20452500</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,28 +4004,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1957900</v>
+        <v>1955200</v>
       </c>
       <c r="E52" s="3">
-        <v>1788400</v>
+        <v>2029200</v>
       </c>
       <c r="F52" s="3">
-        <v>1890500</v>
+        <v>1853600</v>
       </c>
       <c r="G52" s="3">
-        <v>1697600</v>
+        <v>1959400</v>
       </c>
       <c r="H52" s="3">
-        <v>1853800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+        <v>1759500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1921300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3926,50 +4045,53 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>2220400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>2426900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
         <v>2183600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
         <v>1158400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3">
         <v>1172500</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1564100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1508300</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,28 +4170,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>53437900</v>
+        <v>55445500</v>
       </c>
       <c r="E54" s="3">
-        <v>49866100</v>
+        <v>55385200</v>
       </c>
       <c r="F54" s="3">
-        <v>44398700</v>
+        <v>51683300</v>
       </c>
       <c r="G54" s="3">
-        <v>43518700</v>
+        <v>46016700</v>
       </c>
       <c r="H54" s="3">
-        <v>46748600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+        <v>45104700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>48452200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -4086,50 +4211,53 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>54289200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>54381400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>49860400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>45562600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
         <v>46039700</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="3">
         <v>46402100</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB54" s="3">
         <v>46155400</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,28 +4317,29 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9280100</v>
+        <v>9821400</v>
       </c>
       <c r="E57" s="3">
-        <v>7911200</v>
+        <v>9618300</v>
       </c>
       <c r="F57" s="3">
-        <v>7247700</v>
+        <v>8199500</v>
       </c>
       <c r="G57" s="3">
-        <v>6234000</v>
+        <v>7511800</v>
       </c>
       <c r="H57" s="3">
-        <v>6242200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+        <v>6461200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6469700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -4226,70 +4356,73 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>8778900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>8934800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>8151400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>8303100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
         <v>7580200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
         <v>7632900</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="3">
         <v>7305800</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3630000</v>
+        <v>3686100</v>
       </c>
       <c r="E58" s="3">
-        <v>3300200</v>
+        <v>3762200</v>
       </c>
       <c r="F58" s="3">
-        <v>3220600</v>
+        <v>3420500</v>
       </c>
       <c r="G58" s="3">
-        <v>3654500</v>
+        <v>3338000</v>
       </c>
       <c r="H58" s="3">
-        <v>5535800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+        <v>3787600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5737500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -4306,70 +4439,73 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>4303100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>4384400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>2789300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
         <v>4086800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
         <v>3603800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2964300</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB58" s="3">
         <v>4284400</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1706800</v>
+        <v>1505500</v>
       </c>
       <c r="E59" s="3">
-        <v>1134100</v>
+        <v>1769000</v>
       </c>
       <c r="F59" s="3">
-        <v>1208600</v>
+        <v>1175400</v>
       </c>
       <c r="G59" s="3">
-        <v>1205600</v>
+        <v>1252700</v>
       </c>
       <c r="H59" s="3">
-        <v>1041200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+        <v>1249500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1079200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4386,70 +4522,73 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>1285300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>1236400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>1395800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>456800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>549800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>623800</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3">
         <v>613900</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14616800</v>
+        <v>15013000</v>
       </c>
       <c r="E60" s="3">
-        <v>12345600</v>
+        <v>15149500</v>
       </c>
       <c r="F60" s="3">
-        <v>11676900</v>
+        <v>12795500</v>
       </c>
       <c r="G60" s="3">
-        <v>11094100</v>
+        <v>12102500</v>
       </c>
       <c r="H60" s="3">
-        <v>12819200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+        <v>11498300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>13286400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -4466,70 +4605,73 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>14367300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>14555600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>12336500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>12846600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
         <v>11733800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
         <v>11221000</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="3">
         <v>12204100</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13296900</v>
+        <v>13640800</v>
       </c>
       <c r="E61" s="3">
-        <v>13923700</v>
+        <v>13781500</v>
       </c>
       <c r="F61" s="3">
-        <v>14118700</v>
+        <v>14431100</v>
       </c>
       <c r="G61" s="3">
-        <v>14920000</v>
+        <v>14633200</v>
       </c>
       <c r="H61" s="3">
-        <v>15887700</v>
+        <v>15463700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>16466700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4547,69 +4689,72 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>15603600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>16601400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>14937700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>12676400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>13801600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>14445600</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>12857900</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3519700</v>
+        <v>3600400</v>
       </c>
       <c r="E62" s="3">
-        <v>3487100</v>
+        <v>3648000</v>
       </c>
       <c r="F62" s="3">
-        <v>2773500</v>
+        <v>3614100</v>
       </c>
       <c r="G62" s="3">
-        <v>2813300</v>
+        <v>2874600</v>
       </c>
       <c r="H62" s="3">
-        <v>3178800</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+        <v>2915800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3294600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4626,50 +4771,53 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>4109300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>4069200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>4005300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
         <v>3827600</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
         <v>4212000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3">
         <v>4661900</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3">
         <v>3987400</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,28 +5062,31 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33895700</v>
+        <v>34760600</v>
       </c>
       <c r="E66" s="3">
-        <v>32149100</v>
+        <v>35130900</v>
       </c>
       <c r="F66" s="3">
-        <v>29559300</v>
+        <v>33320700</v>
       </c>
       <c r="G66" s="3">
-        <v>29848200</v>
+        <v>30636500</v>
       </c>
       <c r="H66" s="3">
-        <v>32872800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+        <v>30935900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>34070800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -4946,50 +5103,53 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>35439100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>36483700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>32678800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>30577100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
         <v>31093700</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
         <v>31650200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB66" s="3">
         <v>30616500</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,28 +5508,31 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18913400</v>
+        <v>20729400</v>
       </c>
       <c r="E72" s="3">
-        <v>18036500</v>
+        <v>19602600</v>
       </c>
       <c r="F72" s="3">
-        <v>15719300</v>
+        <v>18693800</v>
       </c>
       <c r="G72" s="3">
-        <v>14958800</v>
+        <v>16292100</v>
       </c>
       <c r="H72" s="3">
-        <v>14614800</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+        <v>15503900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>15147400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -5376,50 +5549,53 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>17846200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>17021300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>16906000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>14669300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>14349100</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>13577200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" s="3">
         <v>11286200</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,28 +5840,31 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19542200</v>
+        <v>20685000</v>
       </c>
       <c r="E76" s="3">
-        <v>17717000</v>
+        <v>20254400</v>
       </c>
       <c r="F76" s="3">
-        <v>14839400</v>
+        <v>18362600</v>
       </c>
       <c r="G76" s="3">
-        <v>13670600</v>
+        <v>15380100</v>
       </c>
       <c r="H76" s="3">
-        <v>13875700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+        <v>14168700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>14381400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -5696,50 +5881,53 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>18850200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>17897700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>17181600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>14985500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3">
         <v>14946000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="3">
         <v>14751900</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB76" s="3">
         <v>15538900</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1291300</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2337600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>1499200</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1338400</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2422800</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>92800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>-324000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>1435900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>1101100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>1172300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>1042000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="3">
         <v>1193800</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z81" s="3">
         <v>977300</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB81" s="3">
         <v>1119800</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>2866500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>1223400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>1071700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>1100100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>837800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>954800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3">
         <v>825800</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="3">
         <v>982500</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>3127800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>3099500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>1978700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>2772700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>2244300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
         <v>2454900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1900700</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB89" s="3">
         <v>2797200</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1497100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-690000</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1434300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6980,11 +7213,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-808900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6992,49 +7225,52 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-582500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-851700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-450700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-778500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-405000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-729300</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-416700</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>1234800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-173900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-146700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>-925600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
         <v>181800</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-720700</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>-103700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
         <v>-17500</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>7100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
         <v>26000</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3">
         <v>-18700</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3">
         <v>-75200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-81900</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-25800</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>2824600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>1732400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>1455000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>-174600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>-157100</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-55000</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB102" s="3">
         <v>665600</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16117600</v>
+        <v>6869500</v>
       </c>
       <c r="E8" s="3">
-        <v>8239700</v>
+        <v>16405500</v>
       </c>
       <c r="F8" s="3">
-        <v>14267100</v>
+        <v>8386900</v>
       </c>
       <c r="G8" s="3">
-        <v>6086700</v>
+        <v>14522000</v>
       </c>
       <c r="H8" s="3">
-        <v>12623000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+        <v>6195400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12848500</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>10590600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>10444800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>10083300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>14623000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>13461500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>13832800</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>11852900</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>12641500</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>11603600</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
         <v>12557400</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>12889600</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11123800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9948400</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13119900</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11322500</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10126100</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>8058800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>8414100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>8381500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11102100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>10542900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>10821200</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>9445000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
         <v>9918400</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
         <v>8943400</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3">
         <v>9840000</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>3228000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3143300</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2674600</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3285600</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3199500</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2722400</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>2531800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>2030700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>1701800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>3520900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>2918600</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>3011700</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>2407900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2723100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2660200</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3">
         <v>2717400</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-101600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-54000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-103400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-263400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-34900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>18800</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>5900</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>22000</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>16800</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>79700</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1009300</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>986100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1152200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1027400</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1003700</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1172700</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>920500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>1390400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>1614500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1223400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>1071700</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>1100100</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>837800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
         <v>954800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3">
         <v>825800</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="3">
         <v>982500</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>13690500</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>12063300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>9671200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13935100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12278800</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9843900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>8694600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>9759600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>9955600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>12305700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>11541700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>11870400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>10275100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3">
         <v>10738600</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="3">
         <v>9842100</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="3">
         <v>10795500</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>2427100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2203800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2951800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2470400</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2243200</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3004600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>1895900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>685200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>127600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2317300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>1919900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>1962400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>1577800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1902900</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>1761500</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
         <v>1761900</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,111 +1649,115 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>124800</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>140700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>180900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>127100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>143200</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>184100</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>45500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-50900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-108000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>113200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>116500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>101700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>171300</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>65100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>58300</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3">
         <v>78600</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>4628500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>3390100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>5298300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1728,311 +1765,323 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>3500900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3654000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>3108000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>3164300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>2586900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>2922800</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>2645700</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>2823000</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>258200</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>226400</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>249700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>262800</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>230500</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>254100</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>239100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>257300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>260700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>319900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>300000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
         <v>281500</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
         <v>278900</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
         <v>278300</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
         <v>246800</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="3">
         <v>248800</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>2293700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2118100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2883100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2334700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2156000</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2934600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>1702300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>377000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>-241100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>2110700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>1736400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
         <v>1782600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="3">
         <v>1470200</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1689700</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1573000</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="3">
         <v>1591700</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>617900</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>578700</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>379800</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>628900</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>589100</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>386600</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>465500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>193500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>55600</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>551000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>515300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>513400</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
         <v>337100</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3">
         <v>424100</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="3">
         <v>473500</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="3">
         <v>363900</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1675900</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1539400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2503200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1705800</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1566900</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2547900</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>1236800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>183500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>-296700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1559700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>1221100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>1269300</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>1133100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1265600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1099600</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="3">
         <v>1227800</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1499200</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1338400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2422800</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1362300</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2466100</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>1094000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>92800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>-324000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1435900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>1101100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>1140300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>1042000</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1143300</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="3">
         <v>977300</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="3">
         <v>1119800</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,30 +2471,30 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3">
         <v>31900</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="3">
         <v>50500</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-124800</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-140700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-180900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-127100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-143200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-184100</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-45500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>50900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>108000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-113200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-116500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-101700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>-171300</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-65100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-58300</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-78600</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1499200</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1338400</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2422800</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1362300</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2466100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>1094000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>92800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>-324000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1435900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>1101100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>1172300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>1042000</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1193800</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="3">
         <v>977300</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="3">
         <v>1119800</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1499200</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1338400</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2422800</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1362300</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2466100</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>1094000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>92800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>-324000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1435900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>1101100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>1172300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>1042000</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1193800</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="3">
         <v>977300</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="3">
         <v>1119800</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,28 +3180,29 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2925400</v>
+        <v>2977600</v>
       </c>
       <c r="E41" s="3">
-        <v>3056600</v>
+        <v>3111200</v>
       </c>
       <c r="F41" s="3">
-        <v>3436400</v>
+        <v>3497800</v>
       </c>
       <c r="G41" s="3">
-        <v>2081100</v>
+        <v>2118300</v>
       </c>
       <c r="H41" s="3">
-        <v>4232000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4513400</v>
+        <v>4307600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -3135,50 +3222,53 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2125900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>2059900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>3434000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
         <v>2252000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
         <v>2739900</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3">
         <v>3112400</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3">
         <v>3562500</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,28 +3350,31 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4882700</v>
+        <v>4969900</v>
       </c>
       <c r="E43" s="3">
-        <v>5367200</v>
+        <v>5463100</v>
       </c>
       <c r="F43" s="3">
-        <v>3977000</v>
+        <v>4048100</v>
       </c>
       <c r="G43" s="3">
-        <v>4248900</v>
+        <v>4324800</v>
       </c>
       <c r="H43" s="3">
-        <v>3132700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4429800</v>
+        <v>3188700</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -3301,70 +3394,73 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4507400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>5482000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>8610300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
         <v>4480900</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
         <v>3994300</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
         <v>4196200</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3">
         <v>3637600</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3438500</v>
+        <v>3499900</v>
       </c>
       <c r="E44" s="3">
-        <v>3325300</v>
+        <v>3384700</v>
       </c>
       <c r="F44" s="3">
-        <v>2579400</v>
+        <v>2625500</v>
       </c>
       <c r="G44" s="3">
-        <v>2481000</v>
+        <v>2525300</v>
       </c>
       <c r="H44" s="3">
-        <v>2071600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2288500</v>
+        <v>2108600</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3384,70 +3480,73 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2583500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>2676300</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
         <v>2271200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3">
         <v>2223500</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="3">
         <v>2035300</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="3">
         <v>2251800</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="3">
         <v>1899200</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>407300</v>
+        <v>414600</v>
       </c>
       <c r="E45" s="3">
-        <v>698300</v>
+        <v>710800</v>
       </c>
       <c r="F45" s="3">
-        <v>140700</v>
+        <v>143200</v>
       </c>
       <c r="G45" s="3">
-        <v>96300</v>
+        <v>98000</v>
       </c>
       <c r="H45" s="3">
-        <v>106900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>167200</v>
+        <v>108800</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3467,70 +3566,73 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>611700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>155300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>967600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
         <v>468800</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
         <v>484700</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
         <v>591300</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3">
         <v>451900</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11653900</v>
+        <v>11862100</v>
       </c>
       <c r="E46" s="3">
-        <v>12447400</v>
+        <v>12669700</v>
       </c>
       <c r="F46" s="3">
-        <v>10133500</v>
+        <v>10314500</v>
       </c>
       <c r="G46" s="3">
-        <v>8907300</v>
+        <v>9066400</v>
       </c>
       <c r="H46" s="3">
-        <v>9543200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>11398900</v>
+        <v>9713600</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -3550,70 +3652,73 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9828400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>10373500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>10794000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3">
         <v>9425200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
         <v>9254200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3">
         <v>10151800</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="3">
         <v>9551300</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4773700</v>
+        <v>4859000</v>
       </c>
       <c r="E47" s="3">
-        <v>4879500</v>
+        <v>4966700</v>
       </c>
       <c r="F47" s="3">
-        <v>4609700</v>
+        <v>4692100</v>
       </c>
       <c r="G47" s="3">
-        <v>5758700</v>
+        <v>5861600</v>
       </c>
       <c r="H47" s="3">
-        <v>4899600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5171500</v>
+        <v>4987100</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3633,70 +3738,73 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>6006300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>6154900</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>2794000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>3422500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
         <v>3314400</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3">
         <v>3277300</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="3">
         <v>3806700</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14413100</v>
+        <v>14670600</v>
       </c>
       <c r="E48" s="3">
-        <v>13433400</v>
+        <v>13673400</v>
       </c>
       <c r="F48" s="3">
-        <v>13120300</v>
+        <v>13354600</v>
       </c>
       <c r="G48" s="3">
-        <v>12344700</v>
+        <v>12565300</v>
       </c>
       <c r="H48" s="3">
-        <v>12221000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>12544700</v>
+        <v>12439300</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3716,70 +3824,73 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>15490400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>14757900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>13436600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
         <v>12254800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
         <v>12473200</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
         <v>10873200</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3">
         <v>10836600</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22649700</v>
+        <v>23054300</v>
       </c>
       <c r="E49" s="3">
-        <v>22595700</v>
+        <v>22999400</v>
       </c>
       <c r="F49" s="3">
-        <v>21966200</v>
+        <v>22358600</v>
       </c>
       <c r="G49" s="3">
-        <v>17046500</v>
+        <v>17351000</v>
       </c>
       <c r="H49" s="3">
-        <v>16681500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>17415700</v>
+        <v>16979500</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3799,50 +3910,53 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>20743700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>20668200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>20652300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
         <v>19301700</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3">
         <v>19825600</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="3">
         <v>20535800</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC49" s="3">
         <v>20452500</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,28 +4124,31 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1955200</v>
+        <v>1990100</v>
       </c>
       <c r="E52" s="3">
-        <v>2029200</v>
+        <v>2065500</v>
       </c>
       <c r="F52" s="3">
-        <v>1853600</v>
+        <v>1886700</v>
       </c>
       <c r="G52" s="3">
-        <v>1959400</v>
+        <v>1994400</v>
       </c>
       <c r="H52" s="3">
-        <v>1759500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1921300</v>
+        <v>1790900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -4048,50 +4168,53 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2220400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>2426900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>2183600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3">
         <v>1158400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1172500</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1564100</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1508300</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,28 +4296,31 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55445500</v>
+        <v>56436000</v>
       </c>
       <c r="E54" s="3">
-        <v>55385200</v>
+        <v>56374600</v>
       </c>
       <c r="F54" s="3">
-        <v>51683300</v>
+        <v>52606600</v>
       </c>
       <c r="G54" s="3">
-        <v>46016700</v>
+        <v>46838700</v>
       </c>
       <c r="H54" s="3">
-        <v>45104700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>48452200</v>
+        <v>45910400</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -4214,50 +4340,53 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>54289200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>54381400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>49860400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3">
         <v>45562600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
         <v>46039700</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3">
         <v>46402100</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC54" s="3">
         <v>46155400</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,28 +4448,29 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9821400</v>
+        <v>9996900</v>
       </c>
       <c r="E57" s="3">
-        <v>9618300</v>
+        <v>9790100</v>
       </c>
       <c r="F57" s="3">
-        <v>8199500</v>
+        <v>8346000</v>
       </c>
       <c r="G57" s="3">
-        <v>7511800</v>
+        <v>7646000</v>
       </c>
       <c r="H57" s="3">
-        <v>6461200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>6469700</v>
+        <v>6576600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -4359,70 +4490,73 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>8778900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>8934800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>8151400</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>8303100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>7580200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>7632900</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3">
         <v>7305800</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3686100</v>
+        <v>3751900</v>
       </c>
       <c r="E58" s="3">
-        <v>3762200</v>
+        <v>3829500</v>
       </c>
       <c r="F58" s="3">
-        <v>3420500</v>
+        <v>3481600</v>
       </c>
       <c r="G58" s="3">
-        <v>3338000</v>
+        <v>3397600</v>
       </c>
       <c r="H58" s="3">
-        <v>3787600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5737500</v>
+        <v>3855300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -4442,70 +4576,73 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4303100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>4384400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>2789300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
         <v>4086800</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
         <v>3603800</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3">
         <v>2964300</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="3">
         <v>4284400</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1505500</v>
+        <v>1532400</v>
       </c>
       <c r="E59" s="3">
-        <v>1769000</v>
+        <v>1800600</v>
       </c>
       <c r="F59" s="3">
-        <v>1175400</v>
+        <v>1196400</v>
       </c>
       <c r="G59" s="3">
-        <v>1252700</v>
+        <v>1275000</v>
       </c>
       <c r="H59" s="3">
-        <v>1249500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1079200</v>
+        <v>1271800</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4525,70 +4662,73 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1285300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>1236400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>1395800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>456800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>549800</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>623800</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3">
         <v>613900</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15013000</v>
+        <v>15281200</v>
       </c>
       <c r="E60" s="3">
-        <v>15149500</v>
+        <v>15420100</v>
       </c>
       <c r="F60" s="3">
-        <v>12795500</v>
+        <v>13024000</v>
       </c>
       <c r="G60" s="3">
-        <v>12102500</v>
+        <v>12318700</v>
       </c>
       <c r="H60" s="3">
-        <v>11498300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>13286400</v>
+        <v>11703700</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -4608,70 +4748,73 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>14367300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>14555600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>12336500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>12846600</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>11733800</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3">
         <v>11221000</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="3">
         <v>12204100</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13640800</v>
+        <v>13884500</v>
       </c>
       <c r="E61" s="3">
-        <v>13781500</v>
+        <v>14027700</v>
       </c>
       <c r="F61" s="3">
-        <v>14431100</v>
+        <v>14688900</v>
       </c>
       <c r="G61" s="3">
-        <v>14633200</v>
+        <v>14894600</v>
       </c>
       <c r="H61" s="3">
-        <v>15463700</v>
+        <v>15740000</v>
       </c>
       <c r="I61" s="3">
-        <v>16466700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4692,69 +4835,72 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>15603600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>16601400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>14937700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>12676400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>13801600</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>14445600</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>12857900</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3600400</v>
+        <v>3664700</v>
       </c>
       <c r="E62" s="3">
-        <v>3648000</v>
+        <v>3713200</v>
       </c>
       <c r="F62" s="3">
-        <v>3614100</v>
+        <v>3678700</v>
       </c>
       <c r="G62" s="3">
-        <v>2874600</v>
+        <v>2925900</v>
       </c>
       <c r="H62" s="3">
-        <v>2915800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3294600</v>
+        <v>2967900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4774,50 +4920,53 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4109300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>4069200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>4005300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>3827600</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
         <v>4212000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
         <v>4661900</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3">
         <v>3987400</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,28 +5220,31 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34760600</v>
+        <v>35381500</v>
       </c>
       <c r="E66" s="3">
-        <v>35130900</v>
+        <v>35758500</v>
       </c>
       <c r="F66" s="3">
-        <v>33320700</v>
+        <v>33915900</v>
       </c>
       <c r="G66" s="3">
-        <v>30636500</v>
+        <v>31183800</v>
       </c>
       <c r="H66" s="3">
-        <v>30935900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>34070800</v>
+        <v>31488600</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -5106,50 +5264,53 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>35439100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>36483700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>32678800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>30577100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>31093700</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
         <v>31650200</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC66" s="3">
         <v>30616500</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,28 +5682,31 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20729400</v>
+        <v>21099700</v>
       </c>
       <c r="E72" s="3">
-        <v>19602600</v>
+        <v>19952800</v>
       </c>
       <c r="F72" s="3">
-        <v>18693800</v>
+        <v>19027700</v>
       </c>
       <c r="G72" s="3">
-        <v>16292100</v>
+        <v>16583200</v>
       </c>
       <c r="H72" s="3">
-        <v>15503900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>15147400</v>
+        <v>15780900</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -5552,50 +5726,53 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>17846200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>17021300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>16906000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>14669300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>14349100</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>13577200</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="3">
         <v>11286200</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,28 +6026,31 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20685000</v>
+        <v>21054500</v>
       </c>
       <c r="E76" s="3">
-        <v>20254400</v>
+        <v>20616200</v>
       </c>
       <c r="F76" s="3">
-        <v>18362600</v>
+        <v>18690700</v>
       </c>
       <c r="G76" s="3">
-        <v>15380100</v>
+        <v>15654900</v>
       </c>
       <c r="H76" s="3">
-        <v>14168700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>14381400</v>
+        <v>14421800</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -5884,50 +6070,53 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>18850200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>17897700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>17181600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
         <v>14985500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>14946000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3">
         <v>14751900</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC76" s="3">
         <v>15538900</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1499200</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1338400</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2422800</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1362300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2466100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>1094000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>92800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>-324000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1435900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>1101100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>1172300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>1042000</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1193800</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA81" s="3">
         <v>977300</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC81" s="3">
         <v>1119800</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+        <v>2031000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>1003700</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
+        <v>2109600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>2866500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1223400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>1071700</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>1100100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>837800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>954800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3">
         <v>825800</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="3">
         <v>982500</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>4841700</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>2335800</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+        <v>4502500</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>3127800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>3099500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>1978700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>2772700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>2244300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>2454900</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="3">
         <v>1900700</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC89" s="3">
         <v>2797200</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-985000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1026000</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-688000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-909000</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-514000</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-1126000</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1497100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-690000</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-2461800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-1174900</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+        <v>-2452100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1434300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7195,19 +7429,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1183500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-702100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-857200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7216,11 +7450,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-808900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7228,49 +7462,52 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-582500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-851700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-450700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-778500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-405000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-729300</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-416700</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>-3367500</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>-1632600</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+        <v>-3104700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>1234800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-173900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-146700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>-925600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>181800</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-720700</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+        <v>-22600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>30200</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>-103700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>7100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>26000</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
         <v>-18700</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-75200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-81900</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-25800</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>-1010100</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>-441500</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+        <v>-1037100</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>2824600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1732400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>1455000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>-174600</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-157100</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-55000</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC102" s="3">
         <v>665600</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6869500</v>
+        <v>15745500</v>
       </c>
       <c r="E8" s="3">
-        <v>16405500</v>
+        <v>6915500</v>
       </c>
       <c r="F8" s="3">
-        <v>8386900</v>
+        <v>16515200</v>
       </c>
       <c r="G8" s="3">
-        <v>14522000</v>
+        <v>8443000</v>
       </c>
       <c r="H8" s="3">
-        <v>6195400</v>
+        <v>14619100</v>
       </c>
       <c r="I8" s="3">
-        <v>12848500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+        <v>6236800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12934400</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>10590600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>10444800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>10083300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>14623000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>13461500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>13832800</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>11852900</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>12641500</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="3">
         <v>11603600</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3">
         <v>12557400</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>13119900</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11322500</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10126100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>12807600</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>13207600</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11398200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10193800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>8058800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>8414100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>8381500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>11102100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>10542900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>10821200</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
         <v>9445000</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
         <v>9918400</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3">
         <v>8943400</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3">
         <v>9840000</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3285600</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3199500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2722400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2937900</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3307600</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3220900</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2740600</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>2531800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>2030700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>1701800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>3520900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>2918600</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>3011700</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>2407900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2723100</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3">
         <v>2660200</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3">
         <v>2717400</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-103400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-263400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>-34900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>18800</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>5900</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>22000</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>16800</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
         <v>79700</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1027400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1003700</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1172700</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>1348600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1034200</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1010400</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1180600</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>920500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>1390400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>1614500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>1223400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>1071700</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
         <v>1100100</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3">
         <v>837800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3">
         <v>954800</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3">
         <v>825800</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="3">
         <v>982500</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>13935100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>12278800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>9843900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>14086800</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14028300</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12360900</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9909800</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>8694600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>9759600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>9955600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>12305700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>11541700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>11870400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3">
         <v>10275100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3">
         <v>10738600</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="3">
         <v>9842100</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="3">
         <v>10795500</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2470400</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2243200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3004600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>1658700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2486900</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2258200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3024600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>1895900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>685200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>127600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>2317300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>1919900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>1962400</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>1577800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>1902900</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3">
         <v>1761500</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3">
         <v>1761900</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,117 +1683,121 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>127100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>143200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>184100</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>127900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>144200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>45500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-50900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-108000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>113200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>116500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>101700</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>171300</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>65100</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3">
         <v>58300</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="3">
         <v>78600</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4628500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3390100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5298300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>3051700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4659500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3412700</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5333800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1768,320 +1805,332 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>3500900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>3654000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>3108000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>3164300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>2586900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>2922800</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>2645700</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
         <v>2823000</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>262800</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>230500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>254100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>319800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>264500</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>232000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>255800</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>239100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>257300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>260700</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>319900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
         <v>300000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
         <v>281500</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
         <v>278900</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
         <v>278300</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3">
         <v>246800</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3">
         <v>248800</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2334700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2156000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2934600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>1383300</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2350300</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2170400</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2954200</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>1702300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>377000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>-241100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>2110700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
         <v>1736400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
         <v>1782600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="3">
         <v>1470200</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1689700</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="3">
         <v>1573000</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="3">
         <v>1591700</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>628900</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>589100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>386600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>633100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>593000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>389200</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
         <v>465500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>193500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>55600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>551000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
         <v>515300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
         <v>513400</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3">
         <v>337100</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="3">
         <v>424100</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="3">
         <v>473500</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="3">
         <v>363900</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1705800</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1566900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2547900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>1286800</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1717200</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1577400</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2565000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>1236800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>183500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>-296700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>1559700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>1221100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>1269300</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="3">
         <v>1133100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1265600</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="3">
         <v>1099600</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="3">
         <v>1227800</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1526000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2466100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>1253200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1371400</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2482600</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>1094000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>92800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>-324000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>1435900</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>1101100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>1140300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="3">
         <v>1042000</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1143300</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="3">
         <v>977300</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="3">
         <v>1119800</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,30 +2535,30 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
         <v>31900</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3">
         <v>50500</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-127100</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-143200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-184100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-185400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-45500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>50900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>108000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-113200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-116500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>-101700</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>-171300</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-65100</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-58300</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-78600</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1526000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2466100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>1253200</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1371400</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2482600</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>1094000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>92800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>-324000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>1435900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>1101100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>1172300</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3">
         <v>1042000</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1193800</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="3">
         <v>977300</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="3">
         <v>1119800</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1526000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2466100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>1253200</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1371400</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2482600</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>1094000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>92800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>-324000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>1435900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>1101100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>1172300</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3">
         <v>1042000</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1193800</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="3">
         <v>977300</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="3">
         <v>1119800</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,28 +3267,29 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2977600</v>
+        <v>2350300</v>
       </c>
       <c r="E41" s="3">
-        <v>3111200</v>
+        <v>2997500</v>
       </c>
       <c r="F41" s="3">
-        <v>3497800</v>
+        <v>3132000</v>
       </c>
       <c r="G41" s="3">
-        <v>2118300</v>
+        <v>3521200</v>
       </c>
       <c r="H41" s="3">
-        <v>4307600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+        <v>2132400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4336400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -3225,50 +3312,53 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>2125900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>2059900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>3434000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3">
         <v>2252000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="3">
         <v>2739900</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB41" s="3">
         <v>3112400</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="3">
         <v>3562500</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,28 +3443,31 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4969900</v>
+        <v>6390800</v>
       </c>
       <c r="E43" s="3">
-        <v>5463100</v>
+        <v>5003100</v>
       </c>
       <c r="F43" s="3">
-        <v>4048100</v>
+        <v>5499600</v>
       </c>
       <c r="G43" s="3">
-        <v>4324800</v>
+        <v>4075100</v>
       </c>
       <c r="H43" s="3">
-        <v>3188700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+        <v>4353700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3210000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -3397,70 +3490,73 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>4507400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>5482000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
         <v>8610300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
         <v>4480900</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
         <v>3994300</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3">
         <v>4196200</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3">
         <v>3637600</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3499900</v>
+        <v>4737500</v>
       </c>
       <c r="E44" s="3">
-        <v>3384700</v>
+        <v>3523300</v>
       </c>
       <c r="F44" s="3">
-        <v>2625500</v>
+        <v>3407300</v>
       </c>
       <c r="G44" s="3">
-        <v>2525300</v>
+        <v>2643000</v>
       </c>
       <c r="H44" s="3">
-        <v>2108600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+        <v>2542200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2122700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3483,70 +3579,73 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>2583500</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
         <v>2676300</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3">
         <v>2271200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3">
         <v>2223500</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="3">
         <v>2035300</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB44" s="3">
         <v>2251800</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD44" s="3">
         <v>1899200</v>
       </c>
-      <c r="AD44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>414600</v>
+        <v>445600</v>
       </c>
       <c r="E45" s="3">
-        <v>710800</v>
+        <v>417400</v>
       </c>
       <c r="F45" s="3">
-        <v>143200</v>
+        <v>715500</v>
       </c>
       <c r="G45" s="3">
-        <v>98000</v>
+        <v>144200</v>
       </c>
       <c r="H45" s="3">
-        <v>108800</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+        <v>98700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>109500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3569,70 +3668,73 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>611700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>155300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>967600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
         <v>468800</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
         <v>484700</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3">
         <v>591300</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3">
         <v>451900</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11862100</v>
+        <v>13924200</v>
       </c>
       <c r="E46" s="3">
-        <v>12669700</v>
+        <v>11941400</v>
       </c>
       <c r="F46" s="3">
-        <v>10314500</v>
+        <v>12754400</v>
       </c>
       <c r="G46" s="3">
-        <v>9066400</v>
+        <v>10383500</v>
       </c>
       <c r="H46" s="3">
-        <v>9713600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+        <v>9127000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>9778600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -3655,70 +3757,73 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>9828400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>10373500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>10794000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3">
         <v>9425200</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="3">
         <v>9254200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="3">
         <v>10151800</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD46" s="3">
         <v>9551300</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4859000</v>
+        <v>5519200</v>
       </c>
       <c r="E47" s="3">
-        <v>4966700</v>
+        <v>4891500</v>
       </c>
       <c r="F47" s="3">
-        <v>4692100</v>
+        <v>4999900</v>
       </c>
       <c r="G47" s="3">
-        <v>5861600</v>
+        <v>4723400</v>
       </c>
       <c r="H47" s="3">
-        <v>4987100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+        <v>5900800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5020500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3741,70 +3846,73 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>6006300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>6154900</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>2794000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3">
         <v>3422500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3">
         <v>3314400</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="3">
         <v>3277300</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD47" s="3">
         <v>3806700</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14670600</v>
+        <v>15501500</v>
       </c>
       <c r="E48" s="3">
-        <v>13673400</v>
+        <v>14768700</v>
       </c>
       <c r="F48" s="3">
-        <v>13354600</v>
+        <v>13764800</v>
       </c>
       <c r="G48" s="3">
-        <v>12565300</v>
+        <v>13443900</v>
       </c>
       <c r="H48" s="3">
-        <v>12439300</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+        <v>12649300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>12522400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3827,70 +3935,73 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>15490400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>14757900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
         <v>13436600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
         <v>12254800</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
         <v>12473200</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="3">
         <v>10873200</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3">
         <v>10836600</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23054300</v>
+        <v>24558100</v>
       </c>
       <c r="E49" s="3">
-        <v>22999400</v>
+        <v>23208400</v>
       </c>
       <c r="F49" s="3">
-        <v>22358600</v>
+        <v>23153100</v>
       </c>
       <c r="G49" s="3">
-        <v>17351000</v>
+        <v>22508100</v>
       </c>
       <c r="H49" s="3">
-        <v>16979500</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+        <v>17467000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>17093000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3913,50 +4024,53 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>20743700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>20668200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3">
         <v>20652300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3">
         <v>19301700</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3">
         <v>19825600</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB49" s="3">
         <v>20535800</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD49" s="3">
         <v>20452500</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,28 +4244,31 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1990100</v>
+        <v>2196400</v>
       </c>
       <c r="E52" s="3">
-        <v>2065500</v>
+        <v>2003400</v>
       </c>
       <c r="F52" s="3">
-        <v>1886700</v>
+        <v>2079300</v>
       </c>
       <c r="G52" s="3">
-        <v>1994400</v>
+        <v>1899300</v>
       </c>
       <c r="H52" s="3">
-        <v>1790900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+        <v>2007800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1802900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -4171,50 +4291,53 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>2220400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
         <v>2426900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
         <v>2183600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3">
         <v>1158400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1172500</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1564100</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="3">
         <v>1508300</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,28 +4422,31 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56436000</v>
+        <v>61699400</v>
       </c>
       <c r="E54" s="3">
-        <v>56374600</v>
+        <v>56813300</v>
       </c>
       <c r="F54" s="3">
-        <v>52606600</v>
+        <v>56751600</v>
       </c>
       <c r="G54" s="3">
-        <v>46838700</v>
+        <v>52958300</v>
       </c>
       <c r="H54" s="3">
-        <v>45910400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+        <v>47151800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>46217400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -4343,50 +4469,53 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>54289200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>54381400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>49860400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
         <v>45562600</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="3">
         <v>46039700</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB54" s="3">
         <v>46402100</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD54" s="3">
         <v>46155400</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,28 +4579,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9996900</v>
+        <v>10563500</v>
       </c>
       <c r="E57" s="3">
-        <v>9790100</v>
+        <v>10063700</v>
       </c>
       <c r="F57" s="3">
-        <v>8346000</v>
+        <v>9855600</v>
       </c>
       <c r="G57" s="3">
-        <v>7646000</v>
+        <v>8401800</v>
       </c>
       <c r="H57" s="3">
-        <v>6576600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+        <v>7697100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6620600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -4493,70 +4624,73 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>8778900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>8934800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>8151400</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
         <v>8303100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
         <v>7580200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="3">
         <v>7632900</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="3">
         <v>7305800</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3751900</v>
+        <v>5871500</v>
       </c>
       <c r="E58" s="3">
-        <v>3829500</v>
+        <v>3777000</v>
       </c>
       <c r="F58" s="3">
-        <v>3481600</v>
+        <v>3855100</v>
       </c>
       <c r="G58" s="3">
-        <v>3397600</v>
+        <v>3504900</v>
       </c>
       <c r="H58" s="3">
-        <v>3855300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+        <v>3420300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3881100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -4579,70 +4713,73 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>4303100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>4384400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
         <v>2789300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
         <v>4086800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3">
         <v>3603800</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB58" s="3">
         <v>2964300</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD58" s="3">
         <v>4284400</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1532400</v>
+        <v>1720500</v>
       </c>
       <c r="E59" s="3">
-        <v>1800600</v>
+        <v>1542700</v>
       </c>
       <c r="F59" s="3">
-        <v>1196400</v>
+        <v>1812600</v>
       </c>
       <c r="G59" s="3">
-        <v>1275000</v>
+        <v>1204400</v>
       </c>
       <c r="H59" s="3">
-        <v>1271800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+        <v>1283600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1280300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4665,70 +4802,73 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>1285300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>1236400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>1395800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>456800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>549800</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3">
         <v>623800</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3">
         <v>613900</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15281200</v>
+        <v>18155400</v>
       </c>
       <c r="E60" s="3">
-        <v>15420100</v>
+        <v>15383400</v>
       </c>
       <c r="F60" s="3">
-        <v>13024000</v>
+        <v>15523200</v>
       </c>
       <c r="G60" s="3">
-        <v>12318700</v>
+        <v>13111100</v>
       </c>
       <c r="H60" s="3">
-        <v>11703700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+        <v>12401000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>11782000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -4751,70 +4891,73 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>14367300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>14555600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>12336500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
         <v>12846600</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
         <v>11733800</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="3">
         <v>11221000</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD60" s="3">
         <v>12204100</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13884500</v>
+        <v>15655500</v>
       </c>
       <c r="E61" s="3">
-        <v>14027700</v>
+        <v>13977300</v>
       </c>
       <c r="F61" s="3">
-        <v>14688900</v>
+        <v>14121500</v>
       </c>
       <c r="G61" s="3">
-        <v>14894600</v>
+        <v>14787100</v>
       </c>
       <c r="H61" s="3">
-        <v>15740000</v>
+        <v>14994200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>15845200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4838,69 +4981,72 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>15603600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>16601400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>14937700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>12676400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>13801600</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>14445600</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>12857900</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3664700</v>
+        <v>3970000</v>
       </c>
       <c r="E62" s="3">
-        <v>3713200</v>
+        <v>3689200</v>
       </c>
       <c r="F62" s="3">
-        <v>3678700</v>
+        <v>3738000</v>
       </c>
       <c r="G62" s="3">
-        <v>2925900</v>
+        <v>3703300</v>
       </c>
       <c r="H62" s="3">
-        <v>2967900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+        <v>2945500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2987800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4923,50 +5069,53 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>4109300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>4069200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
         <v>4005300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
         <v>3827600</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3">
         <v>4212000</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3">
         <v>4661900</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3">
         <v>3987400</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,28 +5378,31 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35381500</v>
+        <v>40666800</v>
       </c>
       <c r="E66" s="3">
-        <v>35758500</v>
+        <v>35618100</v>
       </c>
       <c r="F66" s="3">
-        <v>33915900</v>
+        <v>35997500</v>
       </c>
       <c r="G66" s="3">
-        <v>31183800</v>
+        <v>34142600</v>
       </c>
       <c r="H66" s="3">
-        <v>31488600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+        <v>31392300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>31699100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -5267,50 +5425,53 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>35439100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>36483700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>32678800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
         <v>30577100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
         <v>31093700</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB66" s="3">
         <v>31650200</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD66" s="3">
         <v>30616500</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,28 +5856,31 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21099700</v>
+        <v>22033200</v>
       </c>
       <c r="E72" s="3">
-        <v>19952800</v>
+        <v>21240800</v>
       </c>
       <c r="F72" s="3">
-        <v>19027700</v>
+        <v>20086200</v>
       </c>
       <c r="G72" s="3">
-        <v>16583200</v>
+        <v>19155000</v>
       </c>
       <c r="H72" s="3">
-        <v>15780900</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+        <v>16694100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>15886400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -5729,50 +5903,53 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>17846200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>17021300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>16906000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>14669300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>14349100</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" s="3">
         <v>13577200</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD72" s="3">
         <v>11286200</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,28 +6212,31 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21054500</v>
+        <v>21032600</v>
       </c>
       <c r="E76" s="3">
-        <v>20616200</v>
+        <v>21195200</v>
       </c>
       <c r="F76" s="3">
-        <v>18690700</v>
+        <v>20754000</v>
       </c>
       <c r="G76" s="3">
-        <v>15654900</v>
+        <v>18815600</v>
       </c>
       <c r="H76" s="3">
-        <v>14421800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+        <v>15759600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>14518300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -6073,50 +6259,53 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>18850200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>17897700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>17181600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3">
         <v>14985500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="3">
         <v>14946000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB76" s="3">
         <v>14751900</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD76" s="3">
         <v>15538900</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1526000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1362300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2466100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>1253200</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1371400</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2482600</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>1094000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>92800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>-324000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>1435900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>1101100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>1172300</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="3">
         <v>1042000</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1193800</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB81" s="3">
         <v>977300</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD81" s="3">
         <v>1119800</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2031000</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1003700</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2109600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="D83" s="3">
+        <v>1348600</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2044600</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1010400</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2123800</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>2866500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>1223400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>1071700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>1100100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>837800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3">
         <v>954800</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="3">
         <v>825800</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD83" s="3">
         <v>982500</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>4841700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>2335800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>4502500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="D89" s="3">
+        <v>1118800</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4874100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2351400</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4532600</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>3127800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>3099500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>1978700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>2772700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
         <v>2244300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="3">
         <v>2454900</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB89" s="3">
         <v>1900700</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD89" s="3">
         <v>2797200</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1468000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-985000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1026000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-688000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-909000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-514000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1126000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1497100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-690000</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-2461800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1174900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2452100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="D94" s="3">
+        <v>-2904300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2478300</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1182800</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2468500</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1434300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,31 +7653,32 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-910600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1183500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1191400</v>
       </c>
       <c r="G96" s="3">
-        <v>-702100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-706800</v>
       </c>
       <c r="I96" s="3">
-        <v>-857200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-862900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7453,11 +7687,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-808900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7465,49 +7699,52 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-582500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-851700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-450700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-778500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-405000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-729300</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-416700</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-3367500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1632600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-3104700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="D100" s="3">
+        <v>1273800</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3390000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1643500</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3125500</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>1234800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-173900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>-146700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>-925600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB100" s="3">
         <v>181800</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-720700</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-22600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>30200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>17200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="D101" s="3">
+        <v>-185400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>30400</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>-103700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
         <v>-17500</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
         <v>7100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3">
         <v>26000</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3">
         <v>-18700</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-75200</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-81900</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-25800</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1010100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-441500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1037100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="D102" s="3">
+        <v>-697100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1016900</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-444500</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1044000</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>2824600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>1732400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>1455000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>-174600</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-157100</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-55000</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD102" s="3">
         <v>665600</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HEINY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15745500</v>
+        <v>8696300</v>
       </c>
       <c r="E8" s="3">
-        <v>6915500</v>
+        <v>15758500</v>
       </c>
       <c r="F8" s="3">
-        <v>16515200</v>
+        <v>6921200</v>
       </c>
       <c r="G8" s="3">
-        <v>8443000</v>
+        <v>16528900</v>
       </c>
       <c r="H8" s="3">
-        <v>14619100</v>
+        <v>8450000</v>
       </c>
       <c r="I8" s="3">
-        <v>6236800</v>
+        <v>14631200</v>
       </c>
       <c r="J8" s="3">
+        <v>6242000</v>
+      </c>
+      <c r="K8" s="3">
         <v>12934400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>10590600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>10444800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>10083300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>14623000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>13461500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>13832800</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>11852900</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>12641500</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
         <v>11603600</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
         <v>12557400</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>12807600</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>13207600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11398200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12818200</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13218600</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11407700</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>10193800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>8058800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>8414100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8381500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>11102100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>10542900</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>10821200</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
         <v>9445000</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
         <v>9918400</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3">
         <v>8943400</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3">
         <v>9840000</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2937900</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3307600</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3220900</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2940400</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3310300</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3223500</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>2740600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>2531800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>2030700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1701800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>3520900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>2918600</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>3011700</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2407900</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2723100</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3">
         <v>2660200</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3">
         <v>2717400</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>87800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-104100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>87900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-14100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-55300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-263400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>18800</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>5900</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>22000</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>16800</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
         <v>79700</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1348600</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1034200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1010400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1349700</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1035100</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1011200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>1180600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>920500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>1390400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1614500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>1223400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
         <v>1071700</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
         <v>1100100</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
         <v>837800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3">
         <v>954800</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="3">
         <v>825800</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="3">
         <v>982500</v>
       </c>
-      <c r="AE15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>14086800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>14028300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12360900</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14098500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>14039900</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12371200</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>9909800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>8694600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>9759600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>9955600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>12305700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>11541700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>11870400</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3">
         <v>10275100</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="3">
         <v>10738600</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="3">
         <v>9842100</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="3">
         <v>10795500</v>
       </c>
-      <c r="AE17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1658700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2486900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2258200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1660100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2489000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2260100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>3024600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>1895900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>685200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>127600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>2317300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>1919900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>1962400</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1577800</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>1902900</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
         <v>1761500</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3">
         <v>1761900</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>44400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>127900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>144200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>128000</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>144300</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>185400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>45500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-50900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-108000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>113200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>116500</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>101700</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>171300</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>65100</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3">
         <v>58300</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3">
         <v>78600</v>
       </c>
-      <c r="AE20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>3051700</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>4659500</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>3412700</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>5333800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>3500900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>3654000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>3108000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>3164300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>2586900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>2922800</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>2645700</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3">
         <v>2823000</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>319800</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>264500</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>232000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>320100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>264700</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>232200</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>255800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>239100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>257300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>260700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>319900</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
         <v>300000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
         <v>281500</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
         <v>278900</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
         <v>278300</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="3">
         <v>246800</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3">
         <v>248800</v>
       </c>
-      <c r="AE22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1383300</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2350300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2170400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1384500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2352300</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2172200</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>2954200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
         <v>1702300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>377000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-241100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>2110700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
         <v>1736400</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="3">
         <v>1782600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1470200</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1689700</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="3">
         <v>1573000</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="3">
         <v>1591700</v>
       </c>
-      <c r="AE23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>96500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>633100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>593000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>96600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>633600</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>593500</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
         <v>389200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>465500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>193500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>55600</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>551000</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>515300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
         <v>513400</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3">
         <v>337100</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="3">
         <v>424100</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="3">
         <v>473500</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="3">
         <v>363900</v>
       </c>
-      <c r="AE24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1286800</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1717200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1577400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1287900</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1718600</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1578700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>2565000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>1236800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>183500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-296700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>1559700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>1221100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>1269300</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1133100</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1265600</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="3">
         <v>1099600</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="3">
         <v>1227800</v>
       </c>
-      <c r="AE26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1253200</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1536200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1371400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1254300</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1537400</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1372500</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>2482600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>1094000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>92800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>1435900</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>1101100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>1140300</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1042000</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1143300</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="3">
         <v>977300</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="3">
         <v>1119800</v>
       </c>
-      <c r="AE27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,30 +2599,30 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
         <v>31900</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3">
         <v>50500</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-44400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-127900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-144200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-185400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-45500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>50900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>108000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-113200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-116500</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>-101700</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-171300</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-65100</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-58300</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-78600</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1253200</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1536200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1371400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1254300</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1537400</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1372500</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>2482600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>1094000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>92800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>1435900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>1101100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>1172300</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1042000</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1193800</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="3">
         <v>977300</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE33" s="3">
         <v>1119800</v>
       </c>
-      <c r="AE33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1253200</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1536200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1371400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1254300</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1537400</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1372500</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>2482600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>1094000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>92800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>1435900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>1101100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>1172300</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1042000</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1193800</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="3">
         <v>977300</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE35" s="3">
         <v>1119800</v>
       </c>
-      <c r="AE35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,28 +3354,29 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2350300</v>
+        <v>2352300</v>
       </c>
       <c r="E41" s="3">
-        <v>2997500</v>
+        <v>3000000</v>
       </c>
       <c r="F41" s="3">
-        <v>3132000</v>
+        <v>3134600</v>
       </c>
       <c r="G41" s="3">
-        <v>3521200</v>
+        <v>3524100</v>
       </c>
       <c r="H41" s="3">
-        <v>2132400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4336400</v>
+        <v>2134200</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -3315,50 +3402,53 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>2125900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>2059900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
         <v>3434000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
         <v>2252000</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3">
         <v>2739900</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3">
         <v>3112400</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE41" s="3">
         <v>3562500</v>
       </c>
-      <c r="AE41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,28 +3536,31 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6390800</v>
+        <v>6396100</v>
       </c>
       <c r="E43" s="3">
-        <v>5003100</v>
+        <v>5007300</v>
       </c>
       <c r="F43" s="3">
-        <v>5499600</v>
+        <v>5504200</v>
       </c>
       <c r="G43" s="3">
-        <v>4075100</v>
+        <v>4078500</v>
       </c>
       <c r="H43" s="3">
-        <v>4353700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3210000</v>
+        <v>4357400</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -3493,70 +3586,73 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>4507400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>5482000</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
         <v>8610300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4480900</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
         <v>3994300</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3">
         <v>4196200</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3">
         <v>3637600</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4737500</v>
+        <v>4741500</v>
       </c>
       <c r="E44" s="3">
-        <v>3523300</v>
+        <v>3526300</v>
       </c>
       <c r="F44" s="3">
-        <v>3407300</v>
+        <v>3410200</v>
       </c>
       <c r="G44" s="3">
-        <v>2643000</v>
+        <v>2645200</v>
       </c>
       <c r="H44" s="3">
-        <v>2542200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2122700</v>
+        <v>2544300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3582,70 +3678,73 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>2583500</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
         <v>2676300</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3">
         <v>2271200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="3">
         <v>2223500</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="3">
         <v>2035300</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="3">
         <v>2251800</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE44" s="3">
         <v>1899200</v>
       </c>
-      <c r="AE44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>445600</v>
+        <v>445900</v>
       </c>
       <c r="E45" s="3">
-        <v>417400</v>
+        <v>417700</v>
       </c>
       <c r="F45" s="3">
-        <v>715500</v>
+        <v>716100</v>
       </c>
       <c r="G45" s="3">
-        <v>144200</v>
+        <v>144300</v>
       </c>
       <c r="H45" s="3">
         <v>98700</v>
       </c>
-      <c r="I45" s="3">
-        <v>109500</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3671,70 +3770,73 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>611700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>155300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
         <v>967600</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
         <v>468800</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
         <v>484700</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3">
         <v>591300</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD45" s="3">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
         <v>451900</v>
       </c>
-      <c r="AE45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13924200</v>
+        <v>13935700</v>
       </c>
       <c r="E46" s="3">
-        <v>11941400</v>
+        <v>11951300</v>
       </c>
       <c r="F46" s="3">
-        <v>12754400</v>
+        <v>12765000</v>
       </c>
       <c r="G46" s="3">
-        <v>10383500</v>
+        <v>10392100</v>
       </c>
       <c r="H46" s="3">
-        <v>9127000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>9778600</v>
+        <v>9134600</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -3760,70 +3862,73 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>9828400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>10373500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3">
         <v>10794000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
         <v>9425200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3">
         <v>9254200</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="3">
         <v>10151800</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE46" s="3">
         <v>9551300</v>
       </c>
-      <c r="AE46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5519200</v>
+        <v>5523700</v>
       </c>
       <c r="E47" s="3">
-        <v>4891500</v>
+        <v>4895500</v>
       </c>
       <c r="F47" s="3">
-        <v>4999900</v>
+        <v>5004000</v>
       </c>
       <c r="G47" s="3">
-        <v>4723400</v>
+        <v>4727300</v>
       </c>
       <c r="H47" s="3">
-        <v>5900800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5020500</v>
+        <v>5905700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3849,70 +3954,73 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>6006300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>6154900</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>2794000</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
         <v>3422500</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3">
         <v>3314400</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="3">
         <v>3277300</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="3">
         <v>3806700</v>
       </c>
-      <c r="AE47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15501500</v>
+        <v>15514400</v>
       </c>
       <c r="E48" s="3">
-        <v>14768700</v>
+        <v>14781000</v>
       </c>
       <c r="F48" s="3">
-        <v>13764800</v>
+        <v>13776200</v>
       </c>
       <c r="G48" s="3">
-        <v>13443900</v>
+        <v>13455100</v>
       </c>
       <c r="H48" s="3">
-        <v>12649300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>12522400</v>
+        <v>12659800</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3938,70 +4046,73 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>15490400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>14757900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
         <v>13436600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
         <v>12254800</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
         <v>12473200</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3">
         <v>10873200</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="3">
         <v>10836600</v>
       </c>
-      <c r="AE48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24558100</v>
+        <v>24578500</v>
       </c>
       <c r="E49" s="3">
-        <v>23208400</v>
+        <v>23227700</v>
       </c>
       <c r="F49" s="3">
-        <v>23153100</v>
+        <v>23172300</v>
       </c>
       <c r="G49" s="3">
-        <v>22508100</v>
+        <v>22526800</v>
       </c>
       <c r="H49" s="3">
-        <v>17467000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>17093000</v>
+        <v>17481500</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -4027,50 +4138,53 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>20743700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>20668200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
         <v>20652300</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3">
         <v>19301700</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="3">
         <v>19825600</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC49" s="3">
         <v>20535800</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE49" s="3">
         <v>20452500</v>
       </c>
-      <c r="AE49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,28 +4364,31 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2196400</v>
+        <v>2198200</v>
       </c>
       <c r="E52" s="3">
-        <v>2003400</v>
+        <v>2005100</v>
       </c>
       <c r="F52" s="3">
-        <v>2079300</v>
+        <v>2081000</v>
       </c>
       <c r="G52" s="3">
-        <v>1899300</v>
+        <v>1900900</v>
       </c>
       <c r="H52" s="3">
-        <v>2007800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1802900</v>
+        <v>2009400</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -4294,50 +4414,53 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>2220400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>2426900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3">
         <v>2183600</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1158400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1172500</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1564100</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3">
         <v>1508300</v>
       </c>
-      <c r="AE52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,28 +4548,31 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61699400</v>
+        <v>61750600</v>
       </c>
       <c r="E54" s="3">
-        <v>56813300</v>
+        <v>56860500</v>
       </c>
       <c r="F54" s="3">
-        <v>56751600</v>
+        <v>56798700</v>
       </c>
       <c r="G54" s="3">
-        <v>52958300</v>
+        <v>53002300</v>
       </c>
       <c r="H54" s="3">
-        <v>47151800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>46217400</v>
+        <v>47191000</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -4472,50 +4598,53 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>54289200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>54381400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3">
         <v>49860400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
         <v>45562600</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3">
         <v>46039700</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC54" s="3">
         <v>46402100</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE54" s="3">
         <v>46155400</v>
       </c>
-      <c r="AE54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,28 +4710,29 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10563500</v>
+        <v>10572200</v>
       </c>
       <c r="E57" s="3">
-        <v>10063700</v>
+        <v>10072100</v>
       </c>
       <c r="F57" s="3">
-        <v>9855600</v>
+        <v>9863700</v>
       </c>
       <c r="G57" s="3">
-        <v>8401800</v>
+        <v>8408800</v>
       </c>
       <c r="H57" s="3">
-        <v>7697100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>6620600</v>
+        <v>7703500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -4627,70 +4758,73 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>8778900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>8934800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>8151400</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>8303100</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>7580200</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3">
         <v>7632900</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE57" s="3">
         <v>7305800</v>
       </c>
-      <c r="AE57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5871500</v>
+        <v>5876400</v>
       </c>
       <c r="E58" s="3">
-        <v>3777000</v>
+        <v>3780100</v>
       </c>
       <c r="F58" s="3">
-        <v>3855100</v>
+        <v>3858300</v>
       </c>
       <c r="G58" s="3">
-        <v>3504900</v>
+        <v>3507800</v>
       </c>
       <c r="H58" s="3">
-        <v>3420300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3881100</v>
+        <v>3423200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -4716,70 +4850,73 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>4303100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>4384400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
         <v>2789300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
         <v>4086800</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3">
         <v>3603800</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="3">
         <v>2964300</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE58" s="3">
         <v>4284400</v>
       </c>
-      <c r="AE58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1720500</v>
+        <v>1721900</v>
       </c>
       <c r="E59" s="3">
-        <v>1542700</v>
+        <v>1544000</v>
       </c>
       <c r="F59" s="3">
-        <v>1812600</v>
+        <v>1814100</v>
       </c>
       <c r="G59" s="3">
-        <v>1204400</v>
+        <v>1205400</v>
       </c>
       <c r="H59" s="3">
-        <v>1283600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1280300</v>
+        <v>1284600</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4805,70 +4942,73 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>1285300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>1236400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>1395800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>456800</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>549800</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3">
         <v>623800</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="3">
         <v>613900</v>
       </c>
-      <c r="AE59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18155400</v>
+        <v>18170500</v>
       </c>
       <c r="E60" s="3">
-        <v>15383400</v>
+        <v>15396200</v>
       </c>
       <c r="F60" s="3">
-        <v>15523200</v>
+        <v>15536100</v>
       </c>
       <c r="G60" s="3">
-        <v>13111100</v>
+        <v>13122000</v>
       </c>
       <c r="H60" s="3">
-        <v>12401000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>11782000</v>
+        <v>12411300</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -4894,70 +5034,73 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>14367300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>14555600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>12336500</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>12846600</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3">
         <v>11733800</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="3">
         <v>11221000</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE60" s="3">
         <v>12204100</v>
       </c>
-      <c r="AE60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15655500</v>
+        <v>15668500</v>
       </c>
       <c r="E61" s="3">
-        <v>13977300</v>
+        <v>13988900</v>
       </c>
       <c r="F61" s="3">
-        <v>14121500</v>
+        <v>14133200</v>
       </c>
       <c r="G61" s="3">
-        <v>14787100</v>
+        <v>14799400</v>
       </c>
       <c r="H61" s="3">
-        <v>14994200</v>
+        <v>15006600</v>
       </c>
       <c r="I61" s="3">
-        <v>15845200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4984,69 +5127,72 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>15603600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>16601400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>14937700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>12676400</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>13801600</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>14445600</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>12857900</v>
       </c>
-      <c r="AE61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3970000</v>
+        <v>3973300</v>
       </c>
       <c r="E62" s="3">
-        <v>3689200</v>
+        <v>3692300</v>
       </c>
       <c r="F62" s="3">
-        <v>3738000</v>
+        <v>3741100</v>
       </c>
       <c r="G62" s="3">
-        <v>3703300</v>
+        <v>3706400</v>
       </c>
       <c r="H62" s="3">
-        <v>2945500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2987800</v>
+        <v>2947900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -5072,50 +5218,53 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>4109300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>4069200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>4005300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
         <v>3827600</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
         <v>4212000</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3">
         <v>4661900</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD62" s="3">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3">
         <v>3987400</v>
       </c>
-      <c r="AE62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,28 +5536,31 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40666800</v>
+        <v>40700500</v>
       </c>
       <c r="E66" s="3">
-        <v>35618100</v>
+        <v>35647700</v>
       </c>
       <c r="F66" s="3">
-        <v>35997500</v>
+        <v>36027400</v>
       </c>
       <c r="G66" s="3">
-        <v>34142600</v>
+        <v>34171000</v>
       </c>
       <c r="H66" s="3">
-        <v>31392300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>31699100</v>
+        <v>31418300</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -5428,50 +5586,53 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>35439100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>36483700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>32678800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>30577100</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
         <v>31093700</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC66" s="3">
         <v>31650200</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE66" s="3">
         <v>30616500</v>
       </c>
-      <c r="AE66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,28 +6030,31 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22033200</v>
+        <v>22051500</v>
       </c>
       <c r="E72" s="3">
-        <v>21240800</v>
+        <v>21258400</v>
       </c>
       <c r="F72" s="3">
-        <v>20086200</v>
+        <v>20102900</v>
       </c>
       <c r="G72" s="3">
-        <v>19155000</v>
+        <v>19170900</v>
       </c>
       <c r="H72" s="3">
-        <v>16694100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>15886400</v>
+        <v>16707900</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -5906,50 +6080,53 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>17846200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>17021300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>16906000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>14669300</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>14349100</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="3">
         <v>13577200</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE72" s="3">
         <v>11286200</v>
       </c>
-      <c r="AE72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,28 +6398,31 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21032600</v>
+        <v>21050100</v>
       </c>
       <c r="E76" s="3">
-        <v>21195200</v>
+        <v>21212800</v>
       </c>
       <c r="F76" s="3">
-        <v>20754000</v>
+        <v>20771200</v>
       </c>
       <c r="G76" s="3">
-        <v>18815600</v>
+        <v>18831300</v>
       </c>
       <c r="H76" s="3">
-        <v>15759600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>14518300</v>
+        <v>15772600</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -6262,50 +6448,53 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>18850200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>17897700</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
         <v>17181600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>14985500</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3">
         <v>14946000</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC76" s="3">
         <v>14751900</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE76" s="3">
         <v>15538900</v>
       </c>
-      <c r="AE76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1253200</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1536200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1371400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1254300</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1537400</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1372500</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>2482600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>1094000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>92800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>1435900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>1101100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>1172300</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1042000</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1193800</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC81" s="3">
         <v>977300</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD81" s="3">
+      <c r="AD81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE81" s="3">
         <v>1119800</v>
       </c>
-      <c r="AE81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1348600</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>2044600</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>1010400</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
         <v>2123800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>2866500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>1223400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>1071700</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>1100100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>837800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3">
         <v>954800</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="3">
         <v>825800</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE83" s="3">
         <v>982500</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1118800</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>4874100</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
-        <v>2351400</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>4532600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>3127800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>3099500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>1978700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>2772700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>2244300</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="3">
         <v>2454900</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC89" s="3">
         <v>1900700</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD89" s="3">
+      <c r="AD89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE89" s="3">
         <v>2797200</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7289,73 +7510,76 @@
         <v>-514000</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1126000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1497100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1062300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1182300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1046900</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1101300</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-1212900</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-690000</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD91" s="3">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-1321700</v>
       </c>
-      <c r="AE91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2904300</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2478300</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1182800</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2468500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1434300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1175600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-4548000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1197100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1474600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-1555100</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-1771600</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD94" s="3">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-1385100</v>
       </c>
-      <c r="AE94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,35 +7887,36 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-910600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1191400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-706800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-862900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7690,11 +7924,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-808900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7702,49 +7936,52 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-582500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-851700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-450700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-778500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-405000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-729300</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-416700</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>1273800</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>-3390000</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1643500</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3125500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>1234800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>-173900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1019900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>-146700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-925600</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-1265600</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC100" s="3">
         <v>181800</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-720700</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-185400</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>-22800</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>30400</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>17300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>-103700</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
         <v>-17500</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
         <v>7100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3">
         <v>26000</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-18700</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-75200</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-81900</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD101" s="3">
+      <c r="AD101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-25800</v>
       </c>
-      <c r="AE101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-697100</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>-1016900</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
-        <v>-444500</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1044000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>2824600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>1732400</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>-3582100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>1455000</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-174600</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-157100</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-55000</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD102" s="3">
+      <c r="AD102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE102" s="3">
         <v>665600</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
